--- a/arranged_dataset/Ru.xlsx
+++ b/arranged_dataset/Ru.xlsx
@@ -19,13 +19,13 @@
     <t>entry</t>
   </si>
   <si>
-    <t>smiles</t>
+    <t>SMILES</t>
   </si>
   <si>
     <t>ROMol</t>
   </si>
   <si>
-    <t>inchikey</t>
+    <t>InChIKey</t>
   </si>
   <si>
     <t>er.</t>
@@ -43,7 +43,7 @@
     <t>test</t>
   </si>
   <si>
-    <t>O=C(CNC(=O)c1ccccc1)c2ccccc2</t>
+    <t>O=C(CNC(=O)c1ccccc1)c1ccccc1</t>
   </si>
   <si>
     <t>MIJZKZQWQXKSPA-UHFFFAOYSA-N</t>
@@ -52,13 +52,13 @@
     <t>https://doi.org/10.1002/1521-3773(20010105)40:1&lt;40::AID-ANIE40&gt;3.0.CO;2-5</t>
   </si>
   <si>
-    <t>O=C(C1=CC=CN1S(=O)(c2ccc(C)cc2)=O)C</t>
+    <t>CC(=O)c1cccn1S(=O)(=O)c1ccc(C)cc1</t>
   </si>
   <si>
     <t>MYLYBCZMJRPTEU-UHFFFAOYSA-N</t>
   </si>
   <si>
-    <t>C(=O)(C2=CN=C(C3(C)OCCO3)S2)c1ccccc1</t>
+    <t>CC1(c2ncc(C(=O)c3ccccc3)s2)OCCO1</t>
   </si>
   <si>
     <t>FHQKWASXMQBSCT-UHFFFAOYSA-N</t>
@@ -67,7 +67,7 @@
     <t xml:space="preserve">https://doi.org/10.1021/ol0360795 </t>
   </si>
   <si>
-    <t>C(=O)(c1cnccc1)c1ccc(C)cc1</t>
+    <t>Cc1ccc(C(=O)c2cccnc2)cc1</t>
   </si>
   <si>
     <t>CXDYOXSPZUWEQX-UHFFFAOYSA-N</t>
@@ -76,73 +76,73 @@
     <t xml:space="preserve">https://doi.org/10.1016/j.tet.2008.06.104 </t>
   </si>
   <si>
-    <t>C(=O)(c1ncccc1)c1ccc(Cl)cc1</t>
+    <t>O=C(c1ccc(Cl)cc1)c1ccccn1</t>
   </si>
   <si>
     <t>KHXSJSBQIWAIEG-UHFFFAOYSA-N</t>
   </si>
   <si>
-    <t>C(=O)(C2=CN=CS2)c1cc(OC3CC3)c(OC(F)F)cc1</t>
+    <t>O=C(c1ccc(OC(F)F)c(OC2CC2)c1)c1cncs1</t>
   </si>
   <si>
     <t>DNNFCPLFPRGBHI-UHFFFAOYSA-N</t>
   </si>
   <si>
-    <t>C(=O)(C=C(C)C)C</t>
+    <t>CC(=O)C=C(C)C</t>
   </si>
   <si>
     <t>SHOJXDKTYKFBRD-UHFFFAOYSA-N</t>
   </si>
   <si>
-    <t>C(=O)(c1ccc(N)cc1)C</t>
+    <t>CC(=O)c1ccc(N)cc1</t>
   </si>
   <si>
     <t>GPRYKVSEZCQIHD-UHFFFAOYSA-N</t>
   </si>
   <si>
-    <t>C(=O)(C1=NC=CS1)C</t>
+    <t>CC(=O)c1nccs1</t>
   </si>
   <si>
     <t>MOMFXATYAINJML-UHFFFAOYSA-N</t>
   </si>
   <si>
-    <t>C(=O)(c1c(NC(=O)C)cccc1)C</t>
+    <t>CC(=O)Nc1ccccc1C(C)=O</t>
   </si>
   <si>
     <t>YSZGCNKBKQQPAH-UHFFFAOYSA-N</t>
   </si>
   <si>
-    <t>O=C(c2ccnc3cc(Cl)ccc23)c1c(C)cccc1</t>
+    <t>Cc1ccccc1C(=O)c1ccnc2cc(Cl)ccc12</t>
   </si>
   <si>
     <t>YAPSCCPUKNXEOX-UHFFFAOYSA-N</t>
   </si>
   <si>
-    <t>C(=O)(c1cc(Cl)ccc1)CC</t>
+    <t>CCC(=O)c1cccc(Cl)c1</t>
   </si>
   <si>
     <t>PQWGFUFROKIJBO-UHFFFAOYSA-N</t>
   </si>
   <si>
-    <t>C(=O)(C(F)(F)(F))c1ccc(OC)cc1</t>
+    <t>COc1ccc(C(=O)C(F)(F)F)cc1</t>
   </si>
   <si>
     <t>NCJZVRPXSSYDBG-UHFFFAOYSA-N</t>
   </si>
   <si>
-    <t>C(=O)(CN(C)C)c1ccccc1</t>
+    <t>CN(C)CC(=O)c1ccccc1</t>
   </si>
   <si>
     <t>UMLWXYJZDNNBTD-UHFFFAOYSA-N</t>
   </si>
   <si>
-    <t>c1ccccc1C(=O)C</t>
+    <t>CC(=O)c1ccccc1</t>
   </si>
   <si>
     <t>KWOLFJPFCHCOCG-UHFFFAOYSA-N</t>
   </si>
   <si>
-    <t>c1cc(OC)c(OC)cc1CCN(C(=O)c1ccccc1)CC(=O)c1ccc(OCc2ccccc2)cc1</t>
+    <t>COc1ccc(CCN(CC(=O)c2ccc(OCc3ccccc3)cc2)C(=O)c2ccccc2)cc1OC</t>
   </si>
   <si>
     <t>BLNSEHDIFVBBKV-UHFFFAOYSA-N</t>
@@ -154,277 +154,277 @@
     <t>YRNDGUSDBCARGC-UHFFFAOYSA-N</t>
   </si>
   <si>
-    <t>C(=O)(c1ccc(F)cc1)CCCN2CCN(C3=NCC(F)C=N3)CC2</t>
+    <t>O=C(CCCN1CCN(C2=NCC(F)C=N2)CC1)c1ccc(F)cc1</t>
   </si>
   <si>
     <t>QTGQNPULXWGQBL-UHFFFAOYSA-N</t>
   </si>
   <si>
-    <t>C(=O)(c1ncccc1)c1c(C)cccc1</t>
+    <t>Cc1ccccc1C(=O)c1ccccn1</t>
   </si>
   <si>
     <t>GWXTVPWMINBKEI-UHFFFAOYSA-N</t>
   </si>
   <si>
-    <t>C(=O)(c1cc(OC)c(OC)c(OC)c1)C</t>
+    <t>COc1cc(C(C)=O)cc(OC)c1OC</t>
   </si>
   <si>
     <t>VUGQIIQFXCXZJU-UHFFFAOYSA-N</t>
   </si>
   <si>
-    <t>C(=O)(C1=CCCCC1)C</t>
+    <t>CC(=O)C1=CCCCC1</t>
   </si>
   <si>
     <t>LTYLUDGDHUEBGX-UHFFFAOYSA-N</t>
   </si>
   <si>
-    <t>C(=O)(c1ccccc1F)c1ccccc1</t>
+    <t>O=C(c1ccccc1)c1ccccc1F</t>
   </si>
   <si>
     <t>DWFDQVMFSLLMPE-UHFFFAOYSA-N</t>
   </si>
   <si>
-    <t>C(=O)(c1ccc(C(=O)OC(C)C)cc1)C</t>
+    <t>CC(=O)c1ccc(C(=O)OC(C)C)cc1</t>
   </si>
   <si>
     <t>DQQVADFLIZSTDK-UHFFFAOYSA-N</t>
   </si>
   <si>
-    <t>C(=O)(C2=CN=C([Si](C)(C)C(C)(C)C)S2)c1cnc(OC)cc1</t>
+    <t>COc1ccc(C(=O)c2cnc([Si](C)(C)C(C)(C)C)s2)cn1</t>
   </si>
   <si>
     <t>RJOOVWVGRDXTKN-UHFFFAOYSA-N</t>
   </si>
   <si>
-    <t>C(=O)(c1cc(C)ccc1)C</t>
+    <t>CC(=O)c1cccc(C)c1</t>
   </si>
   <si>
     <t>FSPSELPMWGWDRY-UHFFFAOYSA-N</t>
   </si>
   <si>
-    <t>C(=O)(C1=Cc2c(OC)ccc(OC)c2CC1)C</t>
+    <t>COc1ccc(OC)c2c1C=C(C(C)=O)CC2</t>
   </si>
   <si>
     <t>YNXGVXBSQAEVTO-UHFFFAOYSA-N</t>
   </si>
   <si>
-    <t>C(=O)(C2=CN=C([Si](C)(C)C(C)(C)C)S2)c1cc(OC3CC3)c(OC(F)F)cc1</t>
+    <t>CC(C)(C)[Si](C)(C)c1ncc(C(=O)c2ccc(OC(F)F)c(OC3CC3)c2)s1</t>
   </si>
   <si>
     <t>DHLKAJJXHDNVDN-UHFFFAOYSA-N</t>
   </si>
   <si>
-    <t>O=C(CN(C)C(=O)OC(C)(C)C)c2ccccc2</t>
+    <t>CN(CC(=O)c1ccccc1)C(=O)OC(C)(C)C</t>
   </si>
   <si>
     <t>WFKSNAFHIMNMLV-UHFFFAOYSA-N</t>
   </si>
   <si>
-    <t>C(=O)(C1=CC=CO1)CCCC=C</t>
+    <t>C=CCCCC(=O)c1ccco1</t>
   </si>
   <si>
     <t>AFTUQMXNVYPAJO-UHFFFAOYSA-N</t>
   </si>
   <si>
-    <t>C(=O)(c1cc(C(F)(F)F)ccc1)C</t>
+    <t>CC(=O)c1cccc(C(F)(F)F)c1</t>
   </si>
   <si>
     <t>ABXGMGUHGLQMAW-UHFFFAOYSA-N</t>
   </si>
   <si>
-    <t>C(=O)(c1cnccc1)c1ccccc1</t>
+    <t>O=C(c1ccccc1)c1cccnc1</t>
   </si>
   <si>
     <t>RYMBAPVTUHZCNF-UHFFFAOYSA-N</t>
   </si>
   <si>
-    <t>c1ccccc1C(=O)C1CC1</t>
+    <t>O=C(c1ccccc1)C1CC1</t>
   </si>
   <si>
     <t>PJRHFTYXYCVOSJ-UHFFFAOYSA-N</t>
   </si>
   <si>
-    <t>C(=O)(/C=C/c1ccccc1)C(C)C</t>
+    <t>CC(C)C(=O)/C=C/c1ccccc1</t>
   </si>
   <si>
     <t>CAXIQKXPSQYDIR-CMDGGOBGSA-N</t>
   </si>
   <si>
-    <t>C(=O)(/C=C/c1ccccc1)C</t>
+    <t>CC(=O)/C=C/c1ccccc1</t>
   </si>
   <si>
     <t>BWHOZHOGCMHOBV-BQYQJAHWSA-N</t>
   </si>
   <si>
-    <t>C(=O)(C(F)(F)(F))c1ccc(Cl)cc1</t>
+    <t>O=C(c1ccc(Cl)cc1)C(F)(F)F</t>
   </si>
   <si>
     <t>DYPQUENOGZXOGE-UHFFFAOYSA-N</t>
   </si>
   <si>
-    <t>C(=O)(c1ccccc1)C(C)C</t>
+    <t>CC(C)C(=O)c1ccccc1</t>
   </si>
   <si>
     <t>BSMGLVDZZMBWQB-UHFFFAOYSA-N</t>
   </si>
   <si>
-    <t>C(=O)(C1=SC=CC1)CCN(C)C</t>
+    <t>CN(C)CCC(=O)C1=[SH]C=CC1</t>
   </si>
   <si>
     <t>RRRLNSBRKAMGPF-UHFFFAOYSA-N</t>
   </si>
   <si>
-    <t>C(=O)(c1cnccc1)c1cc(Cl)ccc1</t>
+    <t>O=C(c1cccnc1)c1cccc(Cl)c1</t>
   </si>
   <si>
     <t>MDGKXQYPOIIMHW-UHFFFAOYSA-N</t>
   </si>
   <si>
-    <t>C(=O)(/C=C/C1=SC=CC1)C</t>
+    <t>CC(=O)/C=C/C1=[SH]C=CC1</t>
   </si>
   <si>
     <t>FGGKJHHNBUNROM-SNAWJCMRSA-N</t>
   </si>
   <si>
-    <t>C(=O)(c1c(Br)cccc1)C</t>
+    <t>CC(=O)c1ccccc1Br</t>
   </si>
   <si>
     <t>PIMNFNXBTGPCIL-UHFFFAOYSA-N</t>
   </si>
   <si>
-    <t>C(=O)(CN(C)C(=O)C)c1ccccc1</t>
+    <t>CC(=O)N(C)CC(=O)c1ccccc1</t>
   </si>
   <si>
     <t>WILPNXBAEMGDCS-UHFFFAOYSA-N</t>
   </si>
   <si>
-    <t>C(=O)(CN(C)c1ccccc1)C</t>
+    <t>CC(=O)CN(C)c1ccccc1</t>
   </si>
   <si>
     <t>SLOCEDWZEACARV-UHFFFAOYSA-N</t>
   </si>
   <si>
-    <t>C(=O)(c1ccc(c2ccccc2)cc1)C</t>
+    <t>CC(=O)c1ccc(-c2ccccc2)cc1</t>
   </si>
   <si>
     <t>QCZZSANNLWPGEA-UHFFFAOYSA-N</t>
   </si>
   <si>
-    <t>C(=O)(c1ccc(F)cc1)C</t>
+    <t>CC(=O)c1ccc(F)cc1</t>
   </si>
   <si>
     <t>ZDPAWHACYDRYIW-UHFFFAOYSA-N</t>
   </si>
   <si>
-    <t>C(=O)(C1=CC=CO1)C</t>
+    <t>CC(=O)c1ccco1</t>
   </si>
   <si>
     <t>IEMMBWWQXVXBEU-UHFFFAOYSA-N</t>
   </si>
   <si>
-    <t>C(=O)(C1CC1)C</t>
+    <t>CC(=O)C1CC1</t>
   </si>
   <si>
     <t>HVCFCNAITDHQFX-UHFFFAOYSA-N</t>
   </si>
   <si>
-    <t>C(=O)(c1cc(Br)ccc1)C</t>
+    <t>CC(=O)c1cccc(Br)c1</t>
   </si>
   <si>
     <t>JYAQYXOVOHJRCS-UHFFFAOYSA-N</t>
   </si>
   <si>
-    <t>O=C(c2nccc3ccccc23)c1ccccc1</t>
+    <t>O=C(c1ccccc1)c1nccc2ccccc12</t>
   </si>
   <si>
     <t>MDWCIKACMBMJFA-UHFFFAOYSA-N</t>
   </si>
   <si>
-    <t>C(=O)(c1c(OC)cccc1)C2=CN(c3ccccc3)N=C2</t>
+    <t>COc1ccccc1C(=O)c1cnn(-c2ccccc2)c1</t>
   </si>
   <si>
     <t>XTIVLYSLPXZKLH-UHFFFAOYSA-N</t>
   </si>
   <si>
-    <t>C(=O)(c1ccncc1)c1ccccc1</t>
+    <t>O=C(c1ccccc1)c1ccncc1</t>
   </si>
   <si>
     <t>SKFLCXNDKRUHTA-UHFFFAOYSA-N</t>
   </si>
   <si>
-    <t>C(=O)(c1ccc([N+]([O-])=O)cc1)C</t>
+    <t>CC(=O)c1ccc([N+](=O)[O-])cc1</t>
   </si>
   <si>
     <t>YQYGPGKTNQNXMH-UHFFFAOYSA-N</t>
   </si>
   <si>
-    <t>C(=O)(/C=C/C)CC(C)C</t>
+    <t>C/C=C/C(=O)CC(C)C</t>
   </si>
   <si>
     <t>VJQKJGLHKJYTQM-SNAWJCMRSA-N</t>
   </si>
   <si>
-    <t>C(=O)(c1c(F)cc(F)cc1)C</t>
+    <t>CC(=O)c1ccc(F)cc1F</t>
   </si>
   <si>
     <t>QEWHNJPLPZOEKU-UHFFFAOYSA-N</t>
   </si>
   <si>
-    <t>C(=O)(c1ccccc1Br)c1ccccc1</t>
+    <t>O=C(c1ccccc1)c1ccccc1Br</t>
   </si>
   <si>
     <t>ABEVIHIQUUXDMS-UHFFFAOYSA-N</t>
   </si>
   <si>
-    <t>C(=O)(c1ccccc1C)c1ccccc1</t>
+    <t>Cc1ccccc1C(=O)c1ccccc1</t>
   </si>
   <si>
     <t>CKGKXGQVRVAKEA-UHFFFAOYSA-N</t>
   </si>
   <si>
-    <t>C(=O)(C(F)(F)(F))c1ccc(Br)cc1</t>
+    <t>O=C(c1ccc(Br)cc1)C(F)(F)F</t>
   </si>
   <si>
     <t>IHGSAQHSAGRWNI-UHFFFAOYSA-N</t>
   </si>
   <si>
-    <t>C(=O)(c1c(C)cc(C)cc1)C</t>
+    <t>CC(=O)c1ccc(C)cc1C</t>
   </si>
   <si>
     <t>HSDSKVWQTONQBJ-UHFFFAOYSA-N</t>
   </si>
   <si>
-    <t>C(=O)(c1ncccc1)c1cc(Cl)ccc1</t>
+    <t>O=C(c1cccc(Cl)c1)c1ccccn1</t>
   </si>
   <si>
     <t>DTEIFMBOVCPJGY-UHFFFAOYSA-N</t>
   </si>
   <si>
-    <t>C(=O)(C1=C(C)CCC1)C</t>
+    <t>CC(=O)C1=C(C)CCC1</t>
   </si>
   <si>
     <t>HDURLXYBKGWETC-UHFFFAOYSA-N</t>
   </si>
   <si>
-    <t>C(=O)(C1=CC=CO1)CCCCC</t>
+    <t>CCCCCC(=O)c1ccco1</t>
   </si>
   <si>
     <t>YUAYWSBSIJVIBS-UHFFFAOYSA-N</t>
   </si>
   <si>
-    <t>C(=O)(c1c(C)cccc1)C</t>
+    <t>CC(=O)c1ccccc1C</t>
   </si>
   <si>
     <t>YXWWHNCQZBVZPV-UHFFFAOYSA-N</t>
   </si>
   <si>
-    <t>C(=O)(c1cc(F)ccc1)CC</t>
+    <t>CCC(=O)c1cccc(F)c1</t>
   </si>
   <si>
     <t>RPMOHVRRKYJFSB-UHFFFAOYSA-N</t>
   </si>
   <si>
-    <t>C(=O)(CN2C=CN=C2)c1c(Cl)cc(Cl)cc1</t>
+    <t>O=C(Cn1ccnc1)c1ccc(Cl)cc1Cl</t>
   </si>
   <si>
     <t>YAEYBUZMILPYLT-UHFFFAOYSA-N</t>
@@ -433,49 +433,49 @@
     <t>https://doi.org/10.1039/D2CC03701G</t>
   </si>
   <si>
-    <t>O=C(CN(C)C(=O)c1ccccc1)c2ccccc2</t>
+    <t>CN(CC(=O)c1ccccc1)C(=O)c1ccccc1</t>
   </si>
   <si>
     <t>KXARYBXYBGQZCM-UHFFFAOYSA-N</t>
   </si>
   <si>
-    <t>C(=O)(C1=CN=CC=C1)C</t>
+    <t>CC(=O)c1cccnc1</t>
   </si>
   <si>
     <t>WEGYGNROSJDEIW-UHFFFAOYSA-N</t>
   </si>
   <si>
-    <t>C(=O)(c1ncccc1)c1ccc(OC)cc1</t>
+    <t>COc1ccc(C(=O)c2ccccn2)cc1</t>
   </si>
   <si>
     <t>ZYZQOYSKLICWGX-UHFFFAOYSA-N</t>
   </si>
   <si>
-    <t>C(=O)(C(OC)OC)C</t>
+    <t>COC(OC)C(C)=O</t>
   </si>
   <si>
     <t>ULVSHNOGEVXRDR-UHFFFAOYSA-N</t>
   </si>
   <si>
-    <t>C(=O)(C2=CN=C(C)S2)c1cc(OC3CC3)c(OC(F)F)cc1</t>
+    <t>Cc1ncc(C(=O)c2ccc(OC(F)F)c(OC3CC3)c2)s1</t>
   </si>
   <si>
     <t>LCWRNKBOWMZEKT-UHFFFAOYSA-N</t>
   </si>
   <si>
-    <t>C(=O)(c1ccc(CCCC)cc1)C</t>
+    <t>CCCCc1ccc(C(C)=O)cc1</t>
   </si>
   <si>
     <t>MQESVSITPLILCO-UHFFFAOYSA-N</t>
   </si>
   <si>
-    <t>C(=O)(C1=CN=C([Si](C(C)(C))(C(C)(C))C(C)(C))O1)c2ccccc2</t>
+    <t>CC(C)[Si](c1ncc(C(=O)c2ccccc2)o1)(C(C)C)C(C)C</t>
   </si>
   <si>
     <t>IJPGLDZXSJKFQQ-UHFFFAOYSA-N</t>
   </si>
   <si>
-    <t>C(=O)(c1ccc(C)cc1)c1ccccc1</t>
+    <t>Cc1ccc(C(=O)c2ccccc2)cc1</t>
   </si>
   <si>
     <t>WXPWZZHELZEVPO-UHFFFAOYSA-N</t>
@@ -484,265 +484,265 @@
     <t xml:space="preserve">https://doi.org/10.1021/ol9904139 </t>
   </si>
   <si>
-    <t>C(=O)(c1ccc(C(F)(F)F)cc1)c1ccccc1</t>
+    <t>O=C(c1ccccc1)c1ccc(C(F)(F)F)cc1</t>
   </si>
   <si>
     <t>OHTYZZYAMUVKQS-UHFFFAOYSA-N</t>
   </si>
   <si>
-    <t>C(=O)(C1=CSC=C1)C</t>
+    <t>CC(=O)c1ccsc1</t>
   </si>
   <si>
     <t>RNIDWJDZNNVFDY-UHFFFAOYSA-N</t>
   </si>
   <si>
-    <t>C(=O)(C(F)(F)(F))c1ccccc1</t>
+    <t>O=C(c1ccccc1)C(F)(F)F</t>
   </si>
   <si>
     <t>KZJRKRQSDZGHEC-UHFFFAOYSA-N</t>
   </si>
   <si>
-    <t>C(=O)(c1ccccc1Cl)c1ccccc1</t>
+    <t>O=C(c1ccccc1)c1ccccc1Cl</t>
   </si>
   <si>
     <t>VMHYWKBKHMYRNF-UHFFFAOYSA-N</t>
   </si>
   <si>
-    <t>C(=O)(c1cnccc1)c1c(C)cccc1</t>
+    <t>Cc1ccccc1C(=O)c1cccnc1</t>
   </si>
   <si>
     <t>YIPODLIDWSBPJA-UHFFFAOYSA-N</t>
   </si>
   <si>
-    <t>C(=O)(c1cc2ccccc2cc1)C</t>
+    <t>CC(=O)c1ccc2ccccc2c1</t>
   </si>
   <si>
     <t>XSAYZAUNJMRRIR-UHFFFAOYSA-N</t>
   </si>
   <si>
-    <t>C(=O)(C1=CC=NC=C1)C</t>
+    <t>CC(=O)c1ccncc1</t>
   </si>
   <si>
     <t>WMQUKDQWMMOHSA-UHFFFAOYSA-N</t>
   </si>
   <si>
-    <t>O=C(c1ncccc1)c2cc(C(F)(F)F)nc3c(C(F)(F)F)cccc23</t>
+    <t>O=C(c1ccccn1)c1cc(C(F)(F)F)nc2c(C(F)(F)F)cccc12</t>
   </si>
   <si>
     <t>GZTUXOWPGYDWNO-UHFFFAOYSA-N</t>
   </si>
   <si>
-    <t>O=C(c2ccnc3cc(Cl)ccc23)c1ccc(C)cc1</t>
+    <t>Cc1ccc(C(=O)c2ccnc3cc(Cl)ccc23)cc1</t>
   </si>
   <si>
     <t>ZKMWWSYZEDDBGZ-UHFFFAOYSA-N</t>
   </si>
   <si>
-    <t>C(=O)(C2=CSC(C)=N2)c1ccccc1</t>
+    <t>Cc1nc(C(=O)c2ccccc2)cs1</t>
   </si>
   <si>
     <t>LXZSCYZOMOPQEF-UHFFFAOYSA-N</t>
   </si>
   <si>
-    <t>C(=O)(c1ncccc1)c1ccccc1</t>
+    <t>O=C(c1ccccc1)c1ccccn1</t>
   </si>
   <si>
     <t>GCSHUYKULREZSJ-UHFFFAOYSA-N</t>
   </si>
   <si>
-    <t>C(=O)(C1=NC=CC=C1)C(C)C</t>
+    <t>CC(C)C(=O)c1ccccn1</t>
   </si>
   <si>
     <t>OPPJOYDMQXHCFS-UHFFFAOYSA-N</t>
   </si>
   <si>
-    <t>C(=O)(c1c(F)cccc1)C</t>
+    <t>CC(=O)c1ccccc1F</t>
   </si>
   <si>
     <t>QMATYTFXDIWACW-UHFFFAOYSA-N</t>
   </si>
   <si>
-    <t>C(=O)(C1=CC=CS1)C</t>
+    <t>CC(=O)c1cccs1</t>
   </si>
   <si>
     <t>WYJOVVXUZNRJQY-UHFFFAOYSA-N</t>
   </si>
   <si>
-    <t>C(=O)(COc1ccccc1)C</t>
+    <t>CC(=O)COc1ccccc1</t>
   </si>
   <si>
     <t>QWAVNXZAQASOML-UHFFFAOYSA-N</t>
   </si>
   <si>
-    <t>C(=O)(C2=CN=C(C(C(F)(F)F)(C(F)(F)F)OCOC)S2)c1ccccc1</t>
+    <t>COCOC(c1ncc(C(=O)c2ccccc2)s1)(C(F)(F)F)C(F)(F)F</t>
   </si>
   <si>
     <t>RDYXHIZMFBMAOS-UHFFFAOYSA-N</t>
   </si>
   <si>
-    <t>C(=O)(c1ncccc1)c1ccc(C)cc1</t>
+    <t>Cc1ccc(C(=O)c2ccccn2)cc1</t>
   </si>
   <si>
     <t>BHDAKOZHMSQCFH-UHFFFAOYSA-N</t>
   </si>
   <si>
-    <t>C(=O)(c1ccc(OC)cc1)c1ccccc1</t>
+    <t>COc1ccc(C(=O)c2ccccc2)cc1</t>
   </si>
   <si>
     <t>SWFHGTMLYIBPPA-UHFFFAOYSA-N</t>
   </si>
   <si>
-    <t>C(=O)(c1ccccc1)CCN(C)C</t>
+    <t>CN(C)CCC(=O)c1ccccc1</t>
   </si>
   <si>
     <t>QMNXJNURJISYMS-UHFFFAOYSA-N</t>
   </si>
   <si>
-    <t>C(=O)(C1=NC=CC=C1)C</t>
+    <t>CC(=O)c1ccccn1</t>
   </si>
   <si>
     <t>AJKVQEKCUACUMD-UHFFFAOYSA-N</t>
   </si>
   <si>
-    <t>C(=O)(c1ccccc1Br)c1ccc(C)cc1</t>
+    <t>Cc1ccc(C(=O)c2ccccc2Br)cc1</t>
   </si>
   <si>
     <t>PGNXIGKGMHOQCA-UHFFFAOYSA-N</t>
   </si>
   <si>
-    <t>C(=O)(c1c(OC)cccc1)C</t>
+    <t>COc1ccccc1C(C)=O</t>
   </si>
   <si>
     <t>DWPLEOPKBWNPQV-UHFFFAOYSA-N</t>
   </si>
   <si>
-    <t>C(=O)(c1ccc(Cl)cc1)c1ccccc1</t>
+    <t>O=C(c1ccccc1)c1ccc(Cl)cc1</t>
   </si>
   <si>
     <t>UGVRJVHOJNYEHR-UHFFFAOYSA-N</t>
   </si>
   <si>
-    <t>C(=O)(c1ccc(C(F)(F)F)cc1)C</t>
+    <t>CC(=O)c1ccc(C(F)(F)F)cc1</t>
   </si>
   <si>
     <t>HHAISVSEJFEWBZ-UHFFFAOYSA-N</t>
   </si>
   <si>
-    <t>C(=O)(c1cc(F)ccc1)C</t>
+    <t>CC(=O)c1cccc(F)c1</t>
   </si>
   <si>
     <t>HCEKGPAHZCYRBZ-UHFFFAOYSA-N</t>
   </si>
   <si>
-    <t>C(=O)(c1cc(OC)ccc1)C</t>
+    <t>COc1cccc(C(C)=O)c1</t>
   </si>
   <si>
     <t>BAYUSCHCCGXLAY-UHFFFAOYSA-N</t>
   </si>
   <si>
-    <t>C(=O)(c1c(Cl)cc(Cl)cc1)C</t>
+    <t>CC(=O)c1ccc(Cl)cc1Cl</t>
   </si>
   <si>
     <t>XMCRWEBERCXJCH-UHFFFAOYSA-N</t>
   </si>
   <si>
-    <t>c1ccccc1C(=O)CC</t>
+    <t>CCC(=O)c1ccccc1</t>
   </si>
   <si>
     <t>KRIOVPPHQSLHCZ-UHFFFAOYSA-N</t>
   </si>
   <si>
-    <t>C(=O)(c1ccc(Br)cc1)C</t>
+    <t>CC(=O)c1ccc(Br)cc1</t>
   </si>
   <si>
     <t>WYECURVXVYPVAT-UHFFFAOYSA-N</t>
   </si>
   <si>
-    <t>C(=O)(C2=CN=C([Si](C)(C)C(C)(C)C)S2)c1ccccc1</t>
+    <t>CC(C)(C)[Si](C)(C)c1ncc(C(=O)c2ccccc2)s1</t>
   </si>
   <si>
     <t>VUVSIPWGRHQUGS-UHFFFAOYSA-N</t>
   </si>
   <si>
-    <t>C(=O)(c1ccc(C)cc1)C</t>
+    <t>CC(=O)c1ccc(C)cc1</t>
   </si>
   <si>
     <t>GNKZMNRKLCTJAY-UHFFFAOYSA-N</t>
   </si>
   <si>
-    <t>C(=O)(CN(C)C)C</t>
+    <t>CC(=O)CN(C)C</t>
   </si>
   <si>
     <t>VFPKIWATTACVJR-UHFFFAOYSA-N</t>
   </si>
   <si>
-    <t>C(=O)(/C=C/CCCCC)C</t>
+    <t>CCCCC/C=C/C(C)=O</t>
   </si>
   <si>
     <t>HDKLIZDXVUCLHQ-BQYQJAHWSA-N</t>
   </si>
   <si>
-    <t>C(=O)(C(OCC)OCC)c1ccccc1</t>
+    <t>CCOC(OCC)C(=O)c1ccccc1</t>
   </si>
   <si>
     <t>PIZHFBODNLEQBL-UHFFFAOYSA-N</t>
   </si>
   <si>
-    <t>C(=O)(c1ccccc1OC)c1ccccc1</t>
+    <t>COc1ccccc1C(=O)c1ccccc1</t>
   </si>
   <si>
     <t>CSUUDNFYSFENAE-UHFFFAOYSA-N</t>
   </si>
   <si>
-    <t>C(=O)(C1CCCCC1)C</t>
+    <t>CC(=O)C1CCCCC1</t>
   </si>
   <si>
     <t>RIFKADJTWUGDOV-UHFFFAOYSA-N</t>
   </si>
   <si>
-    <t>O=C(c2ccnc3cc(Cl)ccc23)c1ccccc1</t>
+    <t>O=C(c1ccccc1)c1ccnc2cc(Cl)ccc12</t>
   </si>
   <si>
     <t>FCHBFQQIEMUQIF-UHFFFAOYSA-N</t>
   </si>
   <si>
-    <t>C(=O)(c1c(Cl)cccc1)C</t>
+    <t>CC(=O)c1ccccc1Cl</t>
   </si>
   <si>
     <t>ZDOYHCIRUPHUHN-UHFFFAOYSA-N</t>
   </si>
   <si>
-    <t>C(=O)(c1c(C(F)(F)F)cccc1)C</t>
+    <t>CC(=O)c1ccccc1C(F)(F)F</t>
   </si>
   <si>
     <t>FYDUUODXZQITBF-UHFFFAOYSA-N</t>
   </si>
   <si>
-    <t>C(=O)(C1=CCCCCC1)C</t>
+    <t>CC(=O)C1=CCCCCC1</t>
   </si>
   <si>
     <t>CZSBBWHUCQLKNQ-UHFFFAOYSA-N</t>
   </si>
   <si>
-    <t>C(=O)(c1ccc(OC)cc1)C</t>
+    <t>COc1ccc(C(C)=O)cc1</t>
   </si>
   <si>
     <t>NTPLXRHDUXRPNE-UHFFFAOYSA-N</t>
   </si>
   <si>
-    <t>C(=O)(C2=NC=CS2)c1cc(OC3CC3)c(OC(F)F)cc1</t>
+    <t>O=C(c1ccc(OC(F)F)c(OC2CC2)c1)c1nccs1</t>
   </si>
   <si>
     <t>IYZPWGMIISJDTP-UHFFFAOYSA-N</t>
   </si>
   <si>
-    <t>C(=O)(c1c(C(F)(F)F)cc(C(F)(F)F)cc1)C</t>
+    <t>CC(=O)c1ccc(C(F)(F)F)cc1C(F)(F)F</t>
   </si>
   <si>
     <t>MHLYNSLYUWMONA-UHFFFAOYSA-N</t>
   </si>
   <si>
-    <t>C(=O)(/C=C/C1=C(C)CCCC1(C)(C))C</t>
+    <t>CC(=O)/C=C/C1=C(C)CCCC1(C)C</t>
   </si>
   <si>
     <t>PSQYTAPXSHCGMF-BQYQJAHWSA-N</t>

--- a/arranged_dataset/Ru.xlsx
+++ b/arranged_dataset/Ru.xlsx
@@ -28,10 +28,10 @@
     <t>InChIKey</t>
   </si>
   <si>
+    <t>temperature</t>
+  </si>
+  <si>
     <t>er.</t>
-  </si>
-  <si>
-    <t>RT</t>
   </si>
   <si>
     <t>ΔΔG.expt.</t>
@@ -5501,10 +5501,10 @@
         <v>10</v>
       </c>
       <c r="E2">
+        <v>301</v>
+      </c>
+      <c r="F2">
         <v>97.5</v>
-      </c>
-      <c r="F2">
-        <v>0.59899</v>
       </c>
       <c r="G2">
         <v>-2.194436790415199</v>
@@ -5527,10 +5527,10 @@
         <v>13</v>
       </c>
       <c r="E3">
+        <v>301</v>
+      </c>
+      <c r="F3">
         <v>1</v>
-      </c>
-      <c r="F3">
-        <v>0.59899</v>
       </c>
       <c r="G3">
         <v>2.752430839032118</v>
@@ -5553,10 +5553,10 @@
         <v>15</v>
       </c>
       <c r="E4">
+        <v>298</v>
+      </c>
+      <c r="F4">
         <v>96</v>
-      </c>
-      <c r="F4">
-        <v>0.59302</v>
       </c>
       <c r="G4">
         <v>-1.884649482472938</v>
@@ -5579,10 +5579,10 @@
         <v>18</v>
       </c>
       <c r="E5">
+        <v>303</v>
+      </c>
+      <c r="F5">
         <v>89</v>
-      </c>
-      <c r="F5">
-        <v>0.60297</v>
       </c>
       <c r="G5">
         <v>-1.260654159218154</v>
@@ -5605,10 +5605,10 @@
         <v>21</v>
       </c>
       <c r="E6">
+        <v>298</v>
+      </c>
+      <c r="F6">
         <v>12.6</v>
-      </c>
-      <c r="F6">
-        <v>0.59302</v>
       </c>
       <c r="G6">
         <v>1.14856022791088</v>
@@ -5631,10 +5631,10 @@
         <v>23</v>
       </c>
       <c r="E7">
+        <v>298</v>
+      </c>
+      <c r="F7">
         <v>97.5</v>
-      </c>
-      <c r="F7">
-        <v>0.59302</v>
       </c>
       <c r="G7">
         <v>-2.172565327387805</v>
@@ -5657,10 +5657,10 @@
         <v>25</v>
       </c>
       <c r="E8">
+        <v>301</v>
+      </c>
+      <c r="F8">
         <v>3.5</v>
-      </c>
-      <c r="F8">
-        <v>0.59899</v>
       </c>
       <c r="G8">
         <v>1.986718076069495</v>
@@ -5683,10 +5683,10 @@
         <v>27</v>
       </c>
       <c r="E9">
+        <v>301</v>
+      </c>
+      <c r="F9">
         <v>0.5</v>
-      </c>
-      <c r="F9">
-        <v>0.59899</v>
       </c>
       <c r="G9">
         <v>3.170636656961724</v>
@@ -5709,10 +5709,10 @@
         <v>29</v>
       </c>
       <c r="E10">
+        <v>301</v>
+      </c>
+      <c r="F10">
         <v>2</v>
-      </c>
-      <c r="F10">
-        <v>0.59899</v>
       </c>
       <c r="G10">
         <v>2.331161440365284</v>
@@ -5735,10 +5735,10 @@
         <v>31</v>
       </c>
       <c r="E11">
+        <v>301</v>
+      </c>
+      <c r="F11">
         <v>1</v>
-      </c>
-      <c r="F11">
-        <v>0.59899</v>
       </c>
       <c r="G11">
         <v>2.752430839032118</v>
@@ -5761,10 +5761,10 @@
         <v>33</v>
       </c>
       <c r="E12">
+        <v>303</v>
+      </c>
+      <c r="F12">
         <v>43.5</v>
-      </c>
-      <c r="F12">
-        <v>0.60297</v>
       </c>
       <c r="G12">
         <v>0.1576644147438256</v>
@@ -5787,10 +5787,10 @@
         <v>35</v>
       </c>
       <c r="E13">
+        <v>301</v>
+      </c>
+      <c r="F13">
         <v>0.5</v>
-      </c>
-      <c r="F13">
-        <v>0.59899</v>
       </c>
       <c r="G13">
         <v>3.170636656961724</v>
@@ -5813,10 +5813,10 @@
         <v>37</v>
       </c>
       <c r="E14">
+        <v>301</v>
+      </c>
+      <c r="F14">
         <v>98</v>
-      </c>
-      <c r="F14">
-        <v>0.59899</v>
       </c>
       <c r="G14">
         <v>-2.331161440365284</v>
@@ -5839,10 +5839,10 @@
         <v>39</v>
       </c>
       <c r="E15">
+        <v>301</v>
+      </c>
+      <c r="F15">
         <v>96.5</v>
-      </c>
-      <c r="F15">
-        <v>0.59899</v>
       </c>
       <c r="G15">
         <v>-1.986718076069497</v>
@@ -5865,10 +5865,10 @@
         <v>41</v>
       </c>
       <c r="E16">
+        <v>301</v>
+      </c>
+      <c r="F16">
         <v>0.5</v>
-      </c>
-      <c r="F16">
-        <v>0.59899</v>
       </c>
       <c r="G16">
         <v>3.170636656961724</v>
@@ -5891,10 +5891,10 @@
         <v>43</v>
       </c>
       <c r="E17">
+        <v>301</v>
+      </c>
+      <c r="F17">
         <v>98.5</v>
-      </c>
-      <c r="F17">
-        <v>0.59899</v>
       </c>
       <c r="G17">
         <v>-2.506528426687459</v>
@@ -5917,10 +5917,10 @@
         <v>45</v>
       </c>
       <c r="E18">
+        <v>301</v>
+      </c>
+      <c r="F18">
         <v>97.5</v>
-      </c>
-      <c r="F18">
-        <v>0.59899</v>
       </c>
       <c r="G18">
         <v>-2.194436790415199</v>
@@ -5943,10 +5943,10 @@
         <v>47</v>
       </c>
       <c r="E19">
+        <v>301</v>
+      </c>
+      <c r="F19">
         <v>0.5</v>
-      </c>
-      <c r="F19">
-        <v>0.59899</v>
       </c>
       <c r="G19">
         <v>3.170636656961724</v>
@@ -5969,10 +5969,10 @@
         <v>49</v>
       </c>
       <c r="E20">
+        <v>298</v>
+      </c>
+      <c r="F20">
         <v>0.649999999999999</v>
-      </c>
-      <c r="F20">
-        <v>0.59302</v>
       </c>
       <c r="G20">
         <v>2.982553696496239</v>
@@ -5995,10 +5995,10 @@
         <v>51</v>
       </c>
       <c r="E21">
+        <v>301</v>
+      </c>
+      <c r="F21">
         <v>0.5</v>
-      </c>
-      <c r="F21">
-        <v>0.59899</v>
       </c>
       <c r="G21">
         <v>3.170636656961724</v>
@@ -6021,10 +6021,10 @@
         <v>53</v>
       </c>
       <c r="E22">
+        <v>301</v>
+      </c>
+      <c r="F22">
         <v>0.25</v>
-      </c>
-      <c r="F22">
-        <v>0.59899</v>
       </c>
       <c r="G22">
         <v>3.58732799910286</v>
@@ -6047,10 +6047,10 @@
         <v>55</v>
       </c>
       <c r="E23">
+        <v>301</v>
+      </c>
+      <c r="F23">
         <v>99.5</v>
-      </c>
-      <c r="F23">
-        <v>0.59899</v>
       </c>
       <c r="G23">
         <v>-3.170636656961734</v>
@@ -6073,10 +6073,10 @@
         <v>57</v>
       </c>
       <c r="E24">
+        <v>301</v>
+      </c>
+      <c r="F24">
         <v>0.5</v>
-      </c>
-      <c r="F24">
-        <v>0.59899</v>
       </c>
       <c r="G24">
         <v>3.170636656961724</v>
@@ -6099,10 +6099,10 @@
         <v>59</v>
       </c>
       <c r="E25">
+        <v>298</v>
+      </c>
+      <c r="F25">
         <v>97.2</v>
-      </c>
-      <c r="F25">
-        <v>0.59302</v>
       </c>
       <c r="G25">
         <v>-2.10353166053703</v>
@@ -6125,10 +6125,10 @@
         <v>61</v>
       </c>
       <c r="E26">
+        <v>301</v>
+      </c>
+      <c r="F26">
         <v>0.25</v>
-      </c>
-      <c r="F26">
-        <v>0.59899</v>
       </c>
       <c r="G26">
         <v>3.58732799910286</v>
@@ -6151,10 +6151,10 @@
         <v>63</v>
       </c>
       <c r="E27">
+        <v>301</v>
+      </c>
+      <c r="F27">
         <v>3</v>
-      </c>
-      <c r="F27">
-        <v>0.59899</v>
       </c>
       <c r="G27">
         <v>2.08214835422443</v>
@@ -6177,10 +6177,10 @@
         <v>65</v>
       </c>
       <c r="E28">
+        <v>298</v>
+      </c>
+      <c r="F28">
         <v>99.5</v>
-      </c>
-      <c r="F28">
-        <v>0.59302</v>
       </c>
       <c r="G28">
         <v>-3.139035627158129</v>
@@ -6203,10 +6203,10 @@
         <v>67</v>
       </c>
       <c r="E29">
+        <v>301</v>
+      </c>
+      <c r="F29">
         <v>99.5</v>
-      </c>
-      <c r="F29">
-        <v>0.59899</v>
       </c>
       <c r="G29">
         <v>-3.170636656961734</v>
@@ -6229,10 +6229,10 @@
         <v>69</v>
       </c>
       <c r="E30">
+        <v>301</v>
+      </c>
+      <c r="F30">
         <v>1.5</v>
-      </c>
-      <c r="F30">
-        <v>0.59899</v>
       </c>
       <c r="G30">
         <v>2.506528426687457</v>
@@ -6255,10 +6255,10 @@
         <v>71</v>
       </c>
       <c r="E31">
+        <v>301</v>
+      </c>
+      <c r="F31">
         <v>0.5</v>
-      </c>
-      <c r="F31">
-        <v>0.59899</v>
       </c>
       <c r="G31">
         <v>3.170636656961724</v>
@@ -6281,10 +6281,10 @@
         <v>73</v>
       </c>
       <c r="E32">
+        <v>303</v>
+      </c>
+      <c r="F32">
         <v>84.5</v>
-      </c>
-      <c r="F32">
-        <v>0.60297</v>
       </c>
       <c r="G32">
         <v>-1.022583763448757</v>
@@ -6307,10 +6307,10 @@
         <v>75</v>
       </c>
       <c r="E33">
+        <v>301</v>
+      </c>
+      <c r="F33">
         <v>2</v>
-      </c>
-      <c r="F33">
-        <v>0.59899</v>
       </c>
       <c r="G33">
         <v>2.331161440365284</v>
@@ -6333,10 +6333,10 @@
         <v>77</v>
       </c>
       <c r="E34">
+        <v>301</v>
+      </c>
+      <c r="F34">
         <v>7</v>
-      </c>
-      <c r="F34">
-        <v>0.59899</v>
       </c>
       <c r="G34">
         <v>1.549401050221227</v>
@@ -6359,10 +6359,10 @@
         <v>79</v>
       </c>
       <c r="E35">
+        <v>301</v>
+      </c>
+      <c r="F35">
         <v>1.5</v>
-      </c>
-      <c r="F35">
-        <v>0.59899</v>
       </c>
       <c r="G35">
         <v>2.506528426687457</v>
@@ -6385,10 +6385,10 @@
         <v>81</v>
       </c>
       <c r="E36">
+        <v>301</v>
+      </c>
+      <c r="F36">
         <v>97</v>
-      </c>
-      <c r="F36">
-        <v>0.59899</v>
       </c>
       <c r="G36">
         <v>-2.082148354224433</v>
@@ -6411,10 +6411,10 @@
         <v>83</v>
       </c>
       <c r="E37">
+        <v>301</v>
+      </c>
+      <c r="F37">
         <v>0.5</v>
-      </c>
-      <c r="F37">
-        <v>0.59899</v>
       </c>
       <c r="G37">
         <v>3.170636656961724</v>
@@ -6437,10 +6437,10 @@
         <v>85</v>
       </c>
       <c r="E38">
+        <v>301</v>
+      </c>
+      <c r="F38">
         <v>4</v>
-      </c>
-      <c r="F38">
-        <v>0.59899</v>
       </c>
       <c r="G38">
         <v>1.903622463840116</v>
@@ -6463,10 +6463,10 @@
         <v>87</v>
       </c>
       <c r="E39">
+        <v>303</v>
+      </c>
+      <c r="F39">
         <v>77.5</v>
-      </c>
-      <c r="F39">
-        <v>0.60297</v>
       </c>
       <c r="G39">
         <v>-0.7457307612919885</v>
@@ -6489,10 +6489,10 @@
         <v>89</v>
       </c>
       <c r="E40">
+        <v>301</v>
+      </c>
+      <c r="F40">
         <v>4.5</v>
-      </c>
-      <c r="F40">
-        <v>0.59899</v>
       </c>
       <c r="G40">
         <v>1.829943711087029</v>
@@ -6515,10 +6515,10 @@
         <v>91</v>
       </c>
       <c r="E41">
+        <v>301</v>
+      </c>
+      <c r="F41">
         <v>2</v>
-      </c>
-      <c r="F41">
-        <v>0.59899</v>
       </c>
       <c r="G41">
         <v>2.331161440365284</v>
@@ -6541,10 +6541,10 @@
         <v>93</v>
       </c>
       <c r="E42">
+        <v>301</v>
+      </c>
+      <c r="F42">
         <v>99.5</v>
-      </c>
-      <c r="F42">
-        <v>0.59899</v>
       </c>
       <c r="G42">
         <v>-3.170636656961734</v>
@@ -6567,10 +6567,10 @@
         <v>95</v>
       </c>
       <c r="E43">
+        <v>301</v>
+      </c>
+      <c r="F43">
         <v>9.5</v>
-      </c>
-      <c r="F43">
-        <v>0.59899</v>
       </c>
       <c r="G43">
         <v>1.350158232627011</v>
@@ -6593,10 +6593,10 @@
         <v>97</v>
       </c>
       <c r="E44">
+        <v>301</v>
+      </c>
+      <c r="F44">
         <v>1.5</v>
-      </c>
-      <c r="F44">
-        <v>0.59899</v>
       </c>
       <c r="G44">
         <v>2.506528426687457</v>
@@ -6619,10 +6619,10 @@
         <v>99</v>
       </c>
       <c r="E45">
+        <v>301</v>
+      </c>
+      <c r="F45">
         <v>1.5</v>
-      </c>
-      <c r="F45">
-        <v>0.59899</v>
       </c>
       <c r="G45">
         <v>2.506528426687457</v>
@@ -6645,10 +6645,10 @@
         <v>101</v>
       </c>
       <c r="E46">
+        <v>301</v>
+      </c>
+      <c r="F46">
         <v>0.5</v>
-      </c>
-      <c r="F46">
-        <v>0.59899</v>
       </c>
       <c r="G46">
         <v>3.170636656961724</v>
@@ -6671,10 +6671,10 @@
         <v>103</v>
       </c>
       <c r="E47">
+        <v>301</v>
+      </c>
+      <c r="F47">
         <v>2.5</v>
-      </c>
-      <c r="F47">
-        <v>0.59899</v>
       </c>
       <c r="G47">
         <v>2.194436790415197</v>
@@ -6697,10 +6697,10 @@
         <v>105</v>
       </c>
       <c r="E48">
+        <v>301</v>
+      </c>
+      <c r="F48">
         <v>0.25</v>
-      </c>
-      <c r="F48">
-        <v>0.59899</v>
       </c>
       <c r="G48">
         <v>3.58732799910286</v>
@@ -6723,10 +6723,10 @@
         <v>107</v>
       </c>
       <c r="E49">
+        <v>298</v>
+      </c>
+      <c r="F49">
         <v>95.7</v>
-      </c>
-      <c r="F49">
-        <v>0.59302</v>
       </c>
       <c r="G49">
         <v>-1.839905794590835</v>
@@ -6749,10 +6749,10 @@
         <v>109</v>
       </c>
       <c r="E50">
+        <v>298</v>
+      </c>
+      <c r="F50">
         <v>96.8</v>
-      </c>
-      <c r="F50">
-        <v>0.59302</v>
       </c>
       <c r="G50">
         <v>-2.02189942731846</v>
@@ -6775,10 +6775,10 @@
         <v>111</v>
       </c>
       <c r="E51">
+        <v>303</v>
+      </c>
+      <c r="F51">
         <v>77</v>
-      </c>
-      <c r="F51">
-        <v>0.60297</v>
       </c>
       <c r="G51">
         <v>-0.7285754078363164</v>
@@ -6801,10 +6801,10 @@
         <v>113</v>
       </c>
       <c r="E52">
+        <v>301</v>
+      </c>
+      <c r="F52">
         <v>0.25</v>
-      </c>
-      <c r="F52">
-        <v>0.59899</v>
       </c>
       <c r="G52">
         <v>3.58732799910286</v>
@@ -6827,10 +6827,10 @@
         <v>115</v>
       </c>
       <c r="E53">
+        <v>301</v>
+      </c>
+      <c r="F53">
         <v>5</v>
-      </c>
-      <c r="F53">
-        <v>0.59899</v>
       </c>
       <c r="G53">
         <v>1.763689504130906</v>
@@ -6853,10 +6853,10 @@
         <v>117</v>
       </c>
       <c r="E54">
+        <v>301</v>
+      </c>
+      <c r="F54">
         <v>1.5</v>
-      </c>
-      <c r="F54">
-        <v>0.59899</v>
       </c>
       <c r="G54">
         <v>2.506528426687457</v>
@@ -6879,10 +6879,10 @@
         <v>119</v>
       </c>
       <c r="E55">
+        <v>301</v>
+      </c>
+      <c r="F55">
         <v>98.5</v>
-      </c>
-      <c r="F55">
-        <v>0.59899</v>
       </c>
       <c r="G55">
         <v>-2.506528426687459</v>
@@ -6905,10 +6905,10 @@
         <v>121</v>
       </c>
       <c r="E56">
+        <v>301</v>
+      </c>
+      <c r="F56">
         <v>96.5</v>
-      </c>
-      <c r="F56">
-        <v>0.59899</v>
       </c>
       <c r="G56">
         <v>-1.986718076069497</v>
@@ -6931,10 +6931,10 @@
         <v>123</v>
       </c>
       <c r="E57">
+        <v>301</v>
+      </c>
+      <c r="F57">
         <v>97</v>
-      </c>
-      <c r="F57">
-        <v>0.59899</v>
       </c>
       <c r="G57">
         <v>-2.082148354224433</v>
@@ -6957,10 +6957,10 @@
         <v>125</v>
       </c>
       <c r="E58">
+        <v>301</v>
+      </c>
+      <c r="F58">
         <v>0.5</v>
-      </c>
-      <c r="F58">
-        <v>0.59899</v>
       </c>
       <c r="G58">
         <v>3.170636656961724</v>
@@ -6983,10 +6983,10 @@
         <v>127</v>
       </c>
       <c r="E59">
+        <v>303</v>
+      </c>
+      <c r="F59">
         <v>25</v>
-      </c>
-      <c r="F59">
-        <v>0.60297</v>
       </c>
       <c r="G59">
         <v>0.6624302516982101</v>
@@ -7009,10 +7009,10 @@
         <v>129</v>
       </c>
       <c r="E60">
+        <v>301</v>
+      </c>
+      <c r="F60">
         <v>0.5</v>
-      </c>
-      <c r="F60">
-        <v>0.59899</v>
       </c>
       <c r="G60">
         <v>3.170636656961724</v>
@@ -7035,10 +7035,10 @@
         <v>131</v>
       </c>
       <c r="E61">
+        <v>301</v>
+      </c>
+      <c r="F61">
         <v>1</v>
-      </c>
-      <c r="F61">
-        <v>0.59899</v>
       </c>
       <c r="G61">
         <v>2.752430839032118</v>
@@ -7061,10 +7061,10 @@
         <v>133</v>
       </c>
       <c r="E62">
+        <v>301</v>
+      </c>
+      <c r="F62">
         <v>0.5</v>
-      </c>
-      <c r="F62">
-        <v>0.59899</v>
       </c>
       <c r="G62">
         <v>3.170636656961724</v>
@@ -7087,10 +7087,10 @@
         <v>135</v>
       </c>
       <c r="E63">
+        <v>301</v>
+      </c>
+      <c r="F63">
         <v>0.5</v>
-      </c>
-      <c r="F63">
-        <v>0.59899</v>
       </c>
       <c r="G63">
         <v>3.170636656961724</v>
@@ -7113,10 +7113,10 @@
         <v>137</v>
       </c>
       <c r="E64">
+        <v>298</v>
+      </c>
+      <c r="F64">
         <v>99.5</v>
-      </c>
-      <c r="F64">
-        <v>0.59302</v>
       </c>
       <c r="G64">
         <v>-3.139035627158129</v>
@@ -7139,10 +7139,10 @@
         <v>140</v>
       </c>
       <c r="E65">
+        <v>301</v>
+      </c>
+      <c r="F65">
         <v>99.75</v>
-      </c>
-      <c r="F65">
-        <v>0.59899</v>
       </c>
       <c r="G65">
         <v>-3.587327999102873</v>
@@ -7165,10 +7165,10 @@
         <v>142</v>
       </c>
       <c r="E66">
+        <v>301</v>
+      </c>
+      <c r="F66">
         <v>0.25</v>
-      </c>
-      <c r="F66">
-        <v>0.59899</v>
       </c>
       <c r="G66">
         <v>3.58732799910286</v>
@@ -7191,10 +7191,10 @@
         <v>144</v>
       </c>
       <c r="E67">
+        <v>298</v>
+      </c>
+      <c r="F67">
         <v>5.25</v>
-      </c>
-      <c r="F67">
-        <v>0.59302</v>
       </c>
       <c r="G67">
         <v>1.715615024319236</v>
@@ -7217,10 +7217,10 @@
         <v>146</v>
       </c>
       <c r="E68">
+        <v>301</v>
+      </c>
+      <c r="F68">
         <v>1</v>
-      </c>
-      <c r="F68">
-        <v>0.59899</v>
       </c>
       <c r="G68">
         <v>2.752430839032118</v>
@@ -7243,10 +7243,10 @@
         <v>148</v>
       </c>
       <c r="E69">
+        <v>298</v>
+      </c>
+      <c r="F69">
         <v>98.5</v>
-      </c>
-      <c r="F69">
-        <v>0.59302</v>
       </c>
       <c r="G69">
         <v>-2.481546415790242</v>
@@ -7269,10 +7269,10 @@
         <v>150</v>
       </c>
       <c r="E70">
+        <v>301</v>
+      </c>
+      <c r="F70">
         <v>1</v>
-      </c>
-      <c r="F70">
-        <v>0.59899</v>
       </c>
       <c r="G70">
         <v>2.752430839032118</v>
@@ -7295,10 +7295,10 @@
         <v>152</v>
       </c>
       <c r="E71">
+        <v>298</v>
+      </c>
+      <c r="F71">
         <v>99.75</v>
-      </c>
-      <c r="F71">
-        <v>0.59302</v>
       </c>
       <c r="G71">
         <v>-3.55157389944404</v>
@@ -7321,10 +7321,10 @@
         <v>154</v>
       </c>
       <c r="E72">
+        <v>301</v>
+      </c>
+      <c r="F72">
         <v>46</v>
-      </c>
-      <c r="F72">
-        <v>0.59899</v>
       </c>
       <c r="G72">
         <v>0.09604364396853164</v>
@@ -7347,10 +7347,10 @@
         <v>157</v>
       </c>
       <c r="E73">
+        <v>301</v>
+      </c>
+      <c r="F73">
         <v>73.5</v>
-      </c>
-      <c r="F73">
-        <v>0.59899</v>
       </c>
       <c r="G73">
         <v>-0.6110540618560099</v>
@@ -7373,10 +7373,10 @@
         <v>159</v>
       </c>
       <c r="E74">
+        <v>301</v>
+      </c>
+      <c r="F74">
         <v>0.25</v>
-      </c>
-      <c r="F74">
-        <v>0.59899</v>
       </c>
       <c r="G74">
         <v>3.58732799910286</v>
@@ -7399,10 +7399,10 @@
         <v>161</v>
       </c>
       <c r="E75">
+        <v>301</v>
+      </c>
+      <c r="F75">
         <v>98</v>
-      </c>
-      <c r="F75">
-        <v>0.59899</v>
       </c>
       <c r="G75">
         <v>-2.331161440365284</v>
@@ -7425,10 +7425,10 @@
         <v>163</v>
       </c>
       <c r="E76">
+        <v>301</v>
+      </c>
+      <c r="F76">
         <v>98.5</v>
-      </c>
-      <c r="F76">
-        <v>0.59899</v>
       </c>
       <c r="G76">
         <v>-2.506528426687459</v>
@@ -7451,10 +7451,10 @@
         <v>165</v>
       </c>
       <c r="E77">
+        <v>303</v>
+      </c>
+      <c r="F77">
         <v>16</v>
-      </c>
-      <c r="F77">
-        <v>0.60297</v>
       </c>
       <c r="G77">
         <v>0.9998617833496319</v>
@@ -7477,10 +7477,10 @@
         <v>167</v>
       </c>
       <c r="E78">
+        <v>301</v>
+      </c>
+      <c r="F78">
         <v>1</v>
-      </c>
-      <c r="F78">
-        <v>0.59899</v>
       </c>
       <c r="G78">
         <v>2.752430839032118</v>
@@ -7503,10 +7503,10 @@
         <v>169</v>
       </c>
       <c r="E79">
+        <v>301</v>
+      </c>
+      <c r="F79">
         <v>0.25</v>
-      </c>
-      <c r="F79">
-        <v>0.59899</v>
       </c>
       <c r="G79">
         <v>3.58732799910286</v>
@@ -7529,10 +7529,10 @@
         <v>171</v>
       </c>
       <c r="E80">
+        <v>298</v>
+      </c>
+      <c r="F80">
         <v>6</v>
-      </c>
-      <c r="F80">
-        <v>0.59302</v>
       </c>
       <c r="G80">
         <v>1.631715471340137</v>
@@ -7555,10 +7555,10 @@
         <v>173</v>
       </c>
       <c r="E81">
+        <v>303</v>
+      </c>
+      <c r="F81">
         <v>90</v>
-      </c>
-      <c r="F81">
-        <v>0.60297</v>
       </c>
       <c r="G81">
         <v>-1.32486050339642</v>
@@ -7581,10 +7581,10 @@
         <v>175</v>
       </c>
       <c r="E82">
+        <v>298</v>
+      </c>
+      <c r="F82">
         <v>8.300000000000001</v>
-      </c>
-      <c r="F82">
-        <v>0.59302</v>
       </c>
       <c r="G82">
         <v>1.42459229596199</v>
@@ -7607,10 +7607,10 @@
         <v>177</v>
       </c>
       <c r="E83">
+        <v>303</v>
+      </c>
+      <c r="F83">
         <v>15</v>
-      </c>
-      <c r="F83">
-        <v>0.60297</v>
       </c>
       <c r="G83">
         <v>1.045912398367367</v>
@@ -7633,10 +7633,10 @@
         <v>179</v>
       </c>
       <c r="E84">
+        <v>301</v>
+      </c>
+      <c r="F84">
         <v>3</v>
-      </c>
-      <c r="F84">
-        <v>0.59899</v>
       </c>
       <c r="G84">
         <v>2.08214835422443</v>
@@ -7659,10 +7659,10 @@
         <v>181</v>
       </c>
       <c r="E85">
+        <v>301</v>
+      </c>
+      <c r="F85">
         <v>1.5</v>
-      </c>
-      <c r="F85">
-        <v>0.59899</v>
       </c>
       <c r="G85">
         <v>2.506528426687457</v>
@@ -7685,10 +7685,10 @@
         <v>183</v>
       </c>
       <c r="E86">
+        <v>301</v>
+      </c>
+      <c r="F86">
         <v>0.5</v>
-      </c>
-      <c r="F86">
-        <v>0.59899</v>
       </c>
       <c r="G86">
         <v>3.170636656961724</v>
@@ -7711,10 +7711,10 @@
         <v>185</v>
       </c>
       <c r="E87">
+        <v>301</v>
+      </c>
+      <c r="F87">
         <v>10</v>
-      </c>
-      <c r="F87">
-        <v>0.59899</v>
       </c>
       <c r="G87">
         <v>1.316115549578622</v>
@@ -7737,10 +7737,10 @@
         <v>187</v>
       </c>
       <c r="E88">
+        <v>298</v>
+      </c>
+      <c r="F88">
         <v>98.75</v>
-      </c>
-      <c r="F88">
-        <v>0.59302</v>
       </c>
       <c r="G88">
         <v>-2.59116996546999</v>
@@ -7763,10 +7763,10 @@
         <v>189</v>
       </c>
       <c r="E89">
+        <v>303</v>
+      </c>
+      <c r="F89">
         <v>20</v>
-      </c>
-      <c r="F89">
-        <v>0.60297</v>
       </c>
       <c r="G89">
         <v>0.8358939109244604</v>
@@ -7789,10 +7789,10 @@
         <v>191</v>
       </c>
       <c r="E90">
+        <v>301</v>
+      </c>
+      <c r="F90">
         <v>32.5</v>
-      </c>
-      <c r="F90">
-        <v>0.59899</v>
       </c>
       <c r="G90">
         <v>0.4377943087420472</v>
@@ -7815,10 +7815,10 @@
         <v>193</v>
       </c>
       <c r="E91">
+        <v>301</v>
+      </c>
+      <c r="F91">
         <v>1.25</v>
-      </c>
-      <c r="F91">
-        <v>0.59899</v>
       </c>
       <c r="G91">
         <v>2.617255569149221</v>
@@ -7841,10 +7841,10 @@
         <v>195</v>
       </c>
       <c r="E92">
+        <v>301</v>
+      </c>
+      <c r="F92">
         <v>2</v>
-      </c>
-      <c r="F92">
-        <v>0.59899</v>
       </c>
       <c r="G92">
         <v>2.331161440365284</v>
@@ -7867,10 +7867,10 @@
         <v>197</v>
       </c>
       <c r="E93">
+        <v>301</v>
+      </c>
+      <c r="F93">
         <v>98</v>
-      </c>
-      <c r="F93">
-        <v>0.59899</v>
       </c>
       <c r="G93">
         <v>-2.331161440365284</v>
@@ -7893,10 +7893,10 @@
         <v>199</v>
       </c>
       <c r="E94">
+        <v>301</v>
+      </c>
+      <c r="F94">
         <v>4</v>
-      </c>
-      <c r="F94">
-        <v>0.59899</v>
       </c>
       <c r="G94">
         <v>1.903622463840116</v>
@@ -7919,10 +7919,10 @@
         <v>201</v>
       </c>
       <c r="E95">
+        <v>301</v>
+      </c>
+      <c r="F95">
         <v>54.5</v>
-      </c>
-      <c r="F95">
-        <v>0.59899</v>
       </c>
       <c r="G95">
         <v>-0.1081107321679067</v>
@@ -7945,10 +7945,10 @@
         <v>203</v>
       </c>
       <c r="E96">
+        <v>301</v>
+      </c>
+      <c r="F96">
         <v>0.25</v>
-      </c>
-      <c r="F96">
-        <v>0.59899</v>
       </c>
       <c r="G96">
         <v>3.58732799910286</v>
@@ -7971,10 +7971,10 @@
         <v>205</v>
       </c>
       <c r="E97">
+        <v>301</v>
+      </c>
+      <c r="F97">
         <v>1</v>
-      </c>
-      <c r="F97">
-        <v>0.59899</v>
       </c>
       <c r="G97">
         <v>2.752430839032118</v>
@@ -7997,10 +7997,10 @@
         <v>207</v>
       </c>
       <c r="E98">
+        <v>301</v>
+      </c>
+      <c r="F98">
         <v>0.5</v>
-      </c>
-      <c r="F98">
-        <v>0.59899</v>
       </c>
       <c r="G98">
         <v>3.170636656961724</v>
@@ -8023,10 +8023,10 @@
         <v>209</v>
       </c>
       <c r="E99">
+        <v>301</v>
+      </c>
+      <c r="F99">
         <v>2</v>
-      </c>
-      <c r="F99">
-        <v>0.59899</v>
       </c>
       <c r="G99">
         <v>2.331161440365284</v>
@@ -8049,10 +8049,10 @@
         <v>211</v>
       </c>
       <c r="E100">
+        <v>301</v>
+      </c>
+      <c r="F100">
         <v>0.5</v>
-      </c>
-      <c r="F100">
-        <v>0.59899</v>
       </c>
       <c r="G100">
         <v>3.170636656961724</v>
@@ -8075,10 +8075,10 @@
         <v>213</v>
       </c>
       <c r="E101">
+        <v>301</v>
+      </c>
+      <c r="F101">
         <v>0.25</v>
-      </c>
-      <c r="F101">
-        <v>0.59899</v>
       </c>
       <c r="G101">
         <v>3.58732799910286</v>
@@ -8101,10 +8101,10 @@
         <v>215</v>
       </c>
       <c r="E102">
+        <v>298</v>
+      </c>
+      <c r="F102">
         <v>98.5</v>
-      </c>
-      <c r="F102">
-        <v>0.59302</v>
       </c>
       <c r="G102">
         <v>-2.481546415790242</v>
@@ -8127,10 +8127,10 @@
         <v>217</v>
       </c>
       <c r="E103">
+        <v>301</v>
+      </c>
+      <c r="F103">
         <v>1</v>
-      </c>
-      <c r="F103">
-        <v>0.59899</v>
       </c>
       <c r="G103">
         <v>2.752430839032118</v>
@@ -8153,10 +8153,10 @@
         <v>219</v>
       </c>
       <c r="E104">
+        <v>301</v>
+      </c>
+      <c r="F104">
         <v>4</v>
-      </c>
-      <c r="F104">
-        <v>0.59899</v>
       </c>
       <c r="G104">
         <v>1.903622463840116</v>
@@ -8179,10 +8179,10 @@
         <v>221</v>
       </c>
       <c r="E105">
+        <v>301</v>
+      </c>
+      <c r="F105">
         <v>1.5</v>
-      </c>
-      <c r="F105">
-        <v>0.59899</v>
       </c>
       <c r="G105">
         <v>2.506528426687457</v>
@@ -8205,10 +8205,10 @@
         <v>223</v>
       </c>
       <c r="E106">
+        <v>301</v>
+      </c>
+      <c r="F106">
         <v>68.5</v>
-      </c>
-      <c r="F106">
-        <v>0.59899</v>
       </c>
       <c r="G106">
         <v>-0.4653231050005244</v>
@@ -8231,10 +8231,10 @@
         <v>225</v>
       </c>
       <c r="E107">
+        <v>301</v>
+      </c>
+      <c r="F107">
         <v>99.7</v>
-      </c>
-      <c r="F107">
-        <v>0.59899</v>
       </c>
       <c r="G107">
         <v>-3.47781888891013</v>
@@ -8257,10 +8257,10 @@
         <v>227</v>
       </c>
       <c r="E108">
+        <v>301</v>
+      </c>
+      <c r="F108">
         <v>7.5</v>
-      </c>
-      <c r="F108">
-        <v>0.59899</v>
       </c>
       <c r="G108">
         <v>1.504845945705453</v>
@@ -8283,10 +8283,10 @@
         <v>229</v>
       </c>
       <c r="E109">
+        <v>303</v>
+      </c>
+      <c r="F109">
         <v>95</v>
-      </c>
-      <c r="F109">
-        <v>0.60297</v>
       </c>
       <c r="G109">
         <v>-1.775408371267989</v>
@@ -8309,10 +8309,10 @@
         <v>231</v>
       </c>
       <c r="E110">
+        <v>301</v>
+      </c>
+      <c r="F110">
         <v>1</v>
-      </c>
-      <c r="F110">
-        <v>0.59899</v>
       </c>
       <c r="G110">
         <v>2.752430839032118</v>
@@ -8335,10 +8335,10 @@
         <v>233</v>
       </c>
       <c r="E111">
+        <v>301</v>
+      </c>
+      <c r="F111">
         <v>0.5</v>
-      </c>
-      <c r="F111">
-        <v>0.59899</v>
       </c>
       <c r="G111">
         <v>3.170636656961724</v>
@@ -8361,10 +8361,10 @@
         <v>235</v>
       </c>
       <c r="E112">
+        <v>301</v>
+      </c>
+      <c r="F112">
         <v>0.5</v>
-      </c>
-      <c r="F112">
-        <v>0.59899</v>
       </c>
       <c r="G112">
         <v>3.170636656961724</v>
@@ -8387,10 +8387,10 @@
         <v>237</v>
       </c>
       <c r="E113">
+        <v>301</v>
+      </c>
+      <c r="F113">
         <v>0.25</v>
-      </c>
-      <c r="F113">
-        <v>0.59899</v>
       </c>
       <c r="G113">
         <v>3.58732799910286</v>
@@ -8413,10 +8413,10 @@
         <v>239</v>
       </c>
       <c r="E114">
+        <v>298</v>
+      </c>
+      <c r="F114">
         <v>71.09999999999999</v>
-      </c>
-      <c r="F114">
-        <v>0.59302</v>
       </c>
       <c r="G114">
         <v>-0.5338637297374831</v>
@@ -8439,10 +8439,10 @@
         <v>241</v>
       </c>
       <c r="E115">
+        <v>301</v>
+      </c>
+      <c r="F115">
         <v>0.25</v>
-      </c>
-      <c r="F115">
-        <v>0.59899</v>
       </c>
       <c r="G115">
         <v>3.58732799910286</v>
@@ -8465,10 +8465,10 @@
         <v>243</v>
       </c>
       <c r="E116">
+        <v>301</v>
+      </c>
+      <c r="F116">
         <v>3</v>
-      </c>
-      <c r="F116">
-        <v>0.59899</v>
       </c>
       <c r="G116">
         <v>2.08214835422443</v>

--- a/arranged_dataset/Ru.xlsx
+++ b/arranged_dataset/Ru.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="208">
   <si>
     <t>entry</t>
   </si>
@@ -43,145 +43,565 @@
     <t>test</t>
   </si>
   <si>
+    <t>CC(=O)c1cccs1</t>
+  </si>
+  <si>
+    <t>WYJOVVXUZNRJQY-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1002/1521-3773(20010105)40:1&lt;40::AID-ANIE40&gt;3.0.CO;2-5</t>
+  </si>
+  <si>
+    <t>COc1ccc(C(=O)C(F)(F)F)cc1</t>
+  </si>
+  <si>
+    <t>NCJZVRPXSSYDBG-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>CC(C)C(=O)c1ccccc1</t>
+  </si>
+  <si>
+    <t>BSMGLVDZZMBWQB-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>CN(CC(=O)c1ccccc1)C(=O)OC(C)(C)C</t>
+  </si>
+  <si>
+    <t>WFKSNAFHIMNMLV-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>CCC(=O)c1cccc(F)c1</t>
+  </si>
+  <si>
+    <t>RPMOHVRRKYJFSB-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>O=C(c1ccc(Cl)cc1)C(F)(F)F</t>
+  </si>
+  <si>
+    <t>DYPQUENOGZXOGE-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>CCC(=O)c1ccccc1</t>
+  </si>
+  <si>
+    <t>KRIOVPPHQSLHCZ-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>CN(CC(=O)c1ccccc1)C(=O)c1ccccc1</t>
+  </si>
+  <si>
+    <t>KXARYBXYBGQZCM-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>CC(=O)CN(C)C</t>
+  </si>
+  <si>
+    <t>VFPKIWATTACVJR-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>CC(=O)c1cccc(Br)c1</t>
+  </si>
+  <si>
+    <t>JYAQYXOVOHJRCS-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>CC(=O)c1ccc(C)cc1</t>
+  </si>
+  <si>
+    <t>GNKZMNRKLCTJAY-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>COC(OC)C(C)=O</t>
+  </si>
+  <si>
+    <t>ULVSHNOGEVXRDR-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>CC(=O)C=C(C)C</t>
+  </si>
+  <si>
+    <t>SHOJXDKTYKFBRD-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>COc1cccc(C(C)=O)c1</t>
+  </si>
+  <si>
+    <t>BAYUSCHCCGXLAY-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>O=C(c1ccccc1)c1ccccc1Br</t>
+  </si>
+  <si>
+    <t>ABEVIHIQUUXDMS-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>CC(=O)c1ccccc1C</t>
+  </si>
+  <si>
+    <t>YXWWHNCQZBVZPV-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>O=C(c1ccccc1)C1CC1</t>
+  </si>
+  <si>
+    <t>PJRHFTYXYCVOSJ-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>O=C(c1ccccc1)c1ccccc1F</t>
+  </si>
+  <si>
+    <t>DWFDQVMFSLLMPE-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>CC(=O)c1ccccc1C(F)(F)F</t>
+  </si>
+  <si>
+    <t>FYDUUODXZQITBF-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>CC(=O)N(C)CC(=O)c1ccccc1</t>
+  </si>
+  <si>
+    <t>WILPNXBAEMGDCS-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>CC(=O)c1ccc(F)cc1</t>
+  </si>
+  <si>
+    <t>ZDPAWHACYDRYIW-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>CN(C)CCC(=O)C1=[SH]C=CC1</t>
+  </si>
+  <si>
+    <t>RRRLNSBRKAMGPF-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>CN(C)CC(=O)c1ccccc1</t>
+  </si>
+  <si>
+    <t>UMLWXYJZDNNBTD-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>COc1ccccc1C(C)=O</t>
+  </si>
+  <si>
+    <t>DWPLEOPKBWNPQV-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>Cc1ccc(C(=O)c2ccccn2)cc1</t>
+  </si>
+  <si>
+    <t>BHDAKOZHMSQCFH-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1016/j.tet.2008.06.104 </t>
+  </si>
+  <si>
+    <t>COc1ccc(C(C)=O)cc1</t>
+  </si>
+  <si>
+    <t>NTPLXRHDUXRPNE-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>CN(C)CCC(=O)c1ccccc1</t>
+  </si>
+  <si>
+    <t>QMNXJNURJISYMS-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>CC(=O)c1cccc(C(F)(F)F)c1</t>
+  </si>
+  <si>
+    <t>ABXGMGUHGLQMAW-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>CC(=O)c1ccc(C)cc1C</t>
+  </si>
+  <si>
+    <t>HSDSKVWQTONQBJ-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>CC(=O)c1ccc(C(F)(F)F)cc1C(F)(F)F</t>
+  </si>
+  <si>
+    <t>MHLYNSLYUWMONA-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>CC(=O)c1cccc(F)c1</t>
+  </si>
+  <si>
+    <t>HCEKGPAHZCYRBZ-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>CC(=O)/C=C/C1=[SH]C=CC1</t>
+  </si>
+  <si>
+    <t>FGGKJHHNBUNROM-SNAWJCMRSA-N</t>
+  </si>
+  <si>
+    <t>CC(C)C(=O)/C=C/c1ccccc1</t>
+  </si>
+  <si>
+    <t>CAXIQKXPSQYDIR-CMDGGOBGSA-N</t>
+  </si>
+  <si>
+    <t>CC(=O)c1ccc(N)cc1</t>
+  </si>
+  <si>
+    <t>GPRYKVSEZCQIHD-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>O=C(c1ccccc1)c1ccnc2cc(Cl)ccc12</t>
+  </si>
+  <si>
+    <t>FCHBFQQIEMUQIF-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>CC(=O)CN(C)c1ccccc1</t>
+  </si>
+  <si>
+    <t>SLOCEDWZEACARV-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>CC(=O)c1ccc(Cl)cc1Cl</t>
+  </si>
+  <si>
+    <t>XMCRWEBERCXJCH-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>COc1ccccc1C(=O)c1ccccc1</t>
+  </si>
+  <si>
+    <t>CSUUDNFYSFENAE-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>O=C(c1ccccc1)c1ccccc1Cl</t>
+  </si>
+  <si>
+    <t>VMHYWKBKHMYRNF-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>CC(=O)c1nccs1</t>
+  </si>
+  <si>
+    <t>MOMFXATYAINJML-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>Cc1ccccc1C(=O)c1ccccc1</t>
+  </si>
+  <si>
+    <t>CKGKXGQVRVAKEA-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>CC(=O)c1ccc(F)cc1F</t>
+  </si>
+  <si>
+    <t>QEWHNJPLPZOEKU-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>CC(=O)c1ccc(Br)cc1</t>
+  </si>
+  <si>
+    <t>WYECURVXVYPVAT-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>CC(=O)C1=C(C)CCC1</t>
+  </si>
+  <si>
+    <t>HDURLXYBKGWETC-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>O=C(c1ccccc1)c1ccc(Cl)cc1</t>
+  </si>
+  <si>
+    <t>UGVRJVHOJNYEHR-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1021/ol9904139 </t>
+  </si>
+  <si>
+    <t>C=CCCCC(=O)c1ccco1</t>
+  </si>
+  <si>
+    <t>AFTUQMXNVYPAJO-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>CC(=O)c1ccccc1F</t>
+  </si>
+  <si>
+    <t>QMATYTFXDIWACW-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>CCC(=O)c1cccc(Cl)c1</t>
+  </si>
+  <si>
+    <t>PQWGFUFROKIJBO-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>Cc1ccc(C(=O)c2ccnc3cc(Cl)ccc23)cc1</t>
+  </si>
+  <si>
+    <t>ZKMWWSYZEDDBGZ-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>COc1ccc(CCN(CC(=O)c2ccc(OCc3ccccc3)cc2)C(=O)c2ccccc2)cc1OC</t>
+  </si>
+  <si>
+    <t>BLNSEHDIFVBBKV-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>CC(C)C(=O)c1ccccn1</t>
+  </si>
+  <si>
+    <t>OPPJOYDMQXHCFS-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>C/C=C/C(=O)CC(C)C</t>
+  </si>
+  <si>
+    <t>VJQKJGLHKJYTQM-SNAWJCMRSA-N</t>
+  </si>
+  <si>
+    <t>Cc1ccc(C(=O)c2cccnc2)cc1</t>
+  </si>
+  <si>
+    <t>CXDYOXSPZUWEQX-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>CC(=O)c1ccc(-c2ccccc2)cc1</t>
+  </si>
+  <si>
+    <t>QCZZSANNLWPGEA-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>COc1ccc(OC)c2c1C=C(C(C)=O)CC2</t>
+  </si>
+  <si>
+    <t>YNXGVXBSQAEVTO-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>Cc1ccc(C(=O)c2ccccc2)cc1</t>
+  </si>
+  <si>
+    <t>WXPWZZHELZEVPO-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>O=C(c1ccccc1)c1ccc(C(F)(F)F)cc1</t>
+  </si>
+  <si>
+    <t>OHTYZZYAMUVKQS-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>CC(=O)c1cccn1S(=O)(=O)c1ccc(C)cc1</t>
+  </si>
+  <si>
+    <t>MYLYBCZMJRPTEU-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>O=C(c1ccc(Br)cc1)C(F)(F)F</t>
+  </si>
+  <si>
+    <t>IHGSAQHSAGRWNI-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>Cc1ccc(C(=O)c2ccccc2Br)cc1</t>
+  </si>
+  <si>
+    <t>PGNXIGKGMHOQCA-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>O=C(c1cccc(Cl)c1)c1ccccn1</t>
+  </si>
+  <si>
+    <t>DTEIFMBOVCPJGY-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>COc1cc(C(C)=O)cc(OC)c1OC</t>
+  </si>
+  <si>
+    <t>VUGQIIQFXCXZJU-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>CC(=O)C1CC1</t>
+  </si>
+  <si>
+    <t>HVCFCNAITDHQFX-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>CC(=O)C1=CCCCCC1</t>
+  </si>
+  <si>
+    <t>CZSBBWHUCQLKNQ-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>Cc1ccccc1C(=O)c1ccnc2cc(Cl)ccc12</t>
+  </si>
+  <si>
+    <t>YAPSCCPUKNXEOX-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>CC(=O)C1CCCCC1</t>
+  </si>
+  <si>
+    <t>RIFKADJTWUGDOV-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>CC(=O)c1ccccc1Cl</t>
+  </si>
+  <si>
+    <t>ZDOYHCIRUPHUHN-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>CC(=O)c1ccsc1</t>
+  </si>
+  <si>
+    <t>RNIDWJDZNNVFDY-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>COCC(=O)c1ccccc1</t>
+  </si>
+  <si>
+    <t>YRNDGUSDBCARGC-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>Cc1ccccc1C(=O)c1cccnc1</t>
+  </si>
+  <si>
+    <t>YIPODLIDWSBPJA-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>COc1ccc(C(=O)c2ccccc2)cc1</t>
+  </si>
+  <si>
+    <t>SWFHGTMLYIBPPA-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>O=C(CCCN1CCN(C2=NCC(F)C=N2)CC1)c1ccc(F)cc1</t>
+  </si>
+  <si>
+    <t>QTGQNPULXWGQBL-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>CC(=O)c1ccncc1</t>
+  </si>
+  <si>
+    <t>WMQUKDQWMMOHSA-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>CC(=O)c1ccco1</t>
+  </si>
+  <si>
+    <t>IEMMBWWQXVXBEU-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>CC(=O)c1ccccc1</t>
+  </si>
+  <si>
+    <t>KWOLFJPFCHCOCG-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>O=C(c1ccccc1)C(F)(F)F</t>
+  </si>
+  <si>
+    <t>KZJRKRQSDZGHEC-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>O=C(c1ccccc1)c1ccccn1</t>
+  </si>
+  <si>
+    <t>GCSHUYKULREZSJ-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>O=C(c1ccccc1)c1cccnc1</t>
+  </si>
+  <si>
+    <t>RYMBAPVTUHZCNF-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>O=C(c1ccccc1)c1ccncc1</t>
+  </si>
+  <si>
+    <t>SKFLCXNDKRUHTA-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>CC(=O)Nc1ccccc1C(C)=O</t>
+  </si>
+  <si>
+    <t>YSZGCNKBKQQPAH-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>CC(=O)C1=CCCCC1</t>
+  </si>
+  <si>
+    <t>LTYLUDGDHUEBGX-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>CC(=O)c1ccc2ccccc2c1</t>
+  </si>
+  <si>
+    <t>XSAYZAUNJMRRIR-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>CC(=O)c1ccccc1Br</t>
+  </si>
+  <si>
+    <t>PIMNFNXBTGPCIL-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>CC(=O)c1cccnc1</t>
+  </si>
+  <si>
+    <t>WEGYGNROSJDEIW-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>CCCCC/C=C/C(C)=O</t>
+  </si>
+  <si>
+    <t>HDKLIZDXVUCLHQ-BQYQJAHWSA-N</t>
+  </si>
+  <si>
+    <t>CCCCCC(=O)c1ccco1</t>
+  </si>
+  <si>
+    <t>YUAYWSBSIJVIBS-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>CC(=O)COc1ccccc1</t>
+  </si>
+  <si>
+    <t>QWAVNXZAQASOML-UHFFFAOYSA-N</t>
+  </si>
+  <si>
     <t>O=C(CNC(=O)c1ccccc1)c1ccccc1</t>
   </si>
   <si>
     <t>MIJZKZQWQXKSPA-UHFFFAOYSA-N</t>
   </si>
   <si>
-    <t>https://doi.org/10.1002/1521-3773(20010105)40:1&lt;40::AID-ANIE40&gt;3.0.CO;2-5</t>
-  </si>
-  <si>
-    <t>CC(=O)c1cccn1S(=O)(=O)c1ccc(C)cc1</t>
-  </si>
-  <si>
-    <t>MYLYBCZMJRPTEU-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>CC1(c2ncc(C(=O)c3ccccc3)s2)OCCO1</t>
-  </si>
-  <si>
-    <t>FHQKWASXMQBSCT-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://doi.org/10.1021/ol0360795 </t>
-  </si>
-  <si>
-    <t>Cc1ccc(C(=O)c2cccnc2)cc1</t>
-  </si>
-  <si>
-    <t>CXDYOXSPZUWEQX-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://doi.org/10.1016/j.tet.2008.06.104 </t>
-  </si>
-  <si>
-    <t>O=C(c1ccc(Cl)cc1)c1ccccn1</t>
-  </si>
-  <si>
-    <t>KHXSJSBQIWAIEG-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>O=C(c1ccc(OC(F)F)c(OC2CC2)c1)c1cncs1</t>
-  </si>
-  <si>
-    <t>DNNFCPLFPRGBHI-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>CC(=O)C=C(C)C</t>
-  </si>
-  <si>
-    <t>SHOJXDKTYKFBRD-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>CC(=O)c1ccc(N)cc1</t>
-  </si>
-  <si>
-    <t>GPRYKVSEZCQIHD-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>CC(=O)c1nccs1</t>
-  </si>
-  <si>
-    <t>MOMFXATYAINJML-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>CC(=O)Nc1ccccc1C(C)=O</t>
-  </si>
-  <si>
-    <t>YSZGCNKBKQQPAH-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>Cc1ccccc1C(=O)c1ccnc2cc(Cl)ccc12</t>
-  </si>
-  <si>
-    <t>YAPSCCPUKNXEOX-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>CCC(=O)c1cccc(Cl)c1</t>
-  </si>
-  <si>
-    <t>PQWGFUFROKIJBO-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>COc1ccc(C(=O)C(F)(F)F)cc1</t>
-  </si>
-  <si>
-    <t>NCJZVRPXSSYDBG-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>CN(C)CC(=O)c1ccccc1</t>
-  </si>
-  <si>
-    <t>UMLWXYJZDNNBTD-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>CC(=O)c1ccccc1</t>
-  </si>
-  <si>
-    <t>KWOLFJPFCHCOCG-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>COc1ccc(CCN(CC(=O)c2ccc(OCc3ccccc3)cc2)C(=O)c2ccccc2)cc1OC</t>
-  </si>
-  <si>
-    <t>BLNSEHDIFVBBKV-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>COCC(=O)c1ccccc1</t>
-  </si>
-  <si>
-    <t>YRNDGUSDBCARGC-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>O=C(CCCN1CCN(C2=NCC(F)C=N2)CC1)c1ccc(F)cc1</t>
-  </si>
-  <si>
-    <t>QTGQNPULXWGQBL-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>Cc1ccccc1C(=O)c1ccccn1</t>
-  </si>
-  <si>
-    <t>GWXTVPWMINBKEI-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>COc1cc(C(C)=O)cc(OC)c1OC</t>
-  </si>
-  <si>
-    <t>VUGQIIQFXCXZJU-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>CC(=O)C1=CCCCC1</t>
-  </si>
-  <si>
-    <t>LTYLUDGDHUEBGX-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>O=C(c1ccccc1)c1ccccc1F</t>
-  </si>
-  <si>
-    <t>DWFDQVMFSLLMPE-UHFFFAOYSA-N</t>
+    <t>CC(=O)c1cccc(C)c1</t>
+  </si>
+  <si>
+    <t>FSPSELPMWGWDRY-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>CC(=O)c1ccc([N+](=O)[O-])cc1</t>
+  </si>
+  <si>
+    <t>YQYGPGKTNQNXMH-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>CCOC(OCC)C(=O)c1ccccc1</t>
+  </si>
+  <si>
+    <t>PIZHFBODNLEQBL-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>O=C(c1cccnc1)c1cccc(Cl)c1</t>
+  </si>
+  <si>
+    <t>MDGKXQYPOIIMHW-UHFFFAOYSA-N</t>
   </si>
   <si>
     <t>CC(=O)c1ccc(C(=O)OC(C)C)cc1</t>
@@ -190,562 +610,34 @@
     <t>DQQVADFLIZSTDK-UHFFFAOYSA-N</t>
   </si>
   <si>
-    <t>COc1ccc(C(=O)c2cnc([Si](C)(C)C(C)(C)C)s2)cn1</t>
-  </si>
-  <si>
-    <t>RJOOVWVGRDXTKN-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>CC(=O)c1cccc(C)c1</t>
-  </si>
-  <si>
-    <t>FSPSELPMWGWDRY-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>COc1ccc(OC)c2c1C=C(C(C)=O)CC2</t>
-  </si>
-  <si>
-    <t>YNXGVXBSQAEVTO-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>CC(C)(C)[Si](C)(C)c1ncc(C(=O)c2ccc(OC(F)F)c(OC3CC3)c2)s1</t>
-  </si>
-  <si>
-    <t>DHLKAJJXHDNVDN-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>CN(CC(=O)c1ccccc1)C(=O)OC(C)(C)C</t>
-  </si>
-  <si>
-    <t>WFKSNAFHIMNMLV-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>C=CCCCC(=O)c1ccco1</t>
-  </si>
-  <si>
-    <t>AFTUQMXNVYPAJO-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>CC(=O)c1cccc(C(F)(F)F)c1</t>
-  </si>
-  <si>
-    <t>ABXGMGUHGLQMAW-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>O=C(c1ccccc1)c1cccnc1</t>
-  </si>
-  <si>
-    <t>RYMBAPVTUHZCNF-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>O=C(c1ccccc1)C1CC1</t>
-  </si>
-  <si>
-    <t>PJRHFTYXYCVOSJ-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>CC(C)C(=O)/C=C/c1ccccc1</t>
-  </si>
-  <si>
-    <t>CAXIQKXPSQYDIR-CMDGGOBGSA-N</t>
+    <t>CC(=O)c1ccccn1</t>
+  </si>
+  <si>
+    <t>AJKVQEKCUACUMD-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>CCCCc1ccc(C(C)=O)cc1</t>
+  </si>
+  <si>
+    <t>MQESVSITPLILCO-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>CC(=O)c1ccc(C(F)(F)F)cc1</t>
+  </si>
+  <si>
+    <t>HHAISVSEJFEWBZ-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>CC(=O)/C=C/C1=C(C)CCCC1(C)C</t>
+  </si>
+  <si>
+    <t>PSQYTAPXSHCGMF-BQYQJAHWSA-N</t>
   </si>
   <si>
     <t>CC(=O)/C=C/c1ccccc1</t>
   </si>
   <si>
     <t>BWHOZHOGCMHOBV-BQYQJAHWSA-N</t>
-  </si>
-  <si>
-    <t>O=C(c1ccc(Cl)cc1)C(F)(F)F</t>
-  </si>
-  <si>
-    <t>DYPQUENOGZXOGE-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>CC(C)C(=O)c1ccccc1</t>
-  </si>
-  <si>
-    <t>BSMGLVDZZMBWQB-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>CN(C)CCC(=O)C1=[SH]C=CC1</t>
-  </si>
-  <si>
-    <t>RRRLNSBRKAMGPF-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>O=C(c1cccnc1)c1cccc(Cl)c1</t>
-  </si>
-  <si>
-    <t>MDGKXQYPOIIMHW-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>CC(=O)/C=C/C1=[SH]C=CC1</t>
-  </si>
-  <si>
-    <t>FGGKJHHNBUNROM-SNAWJCMRSA-N</t>
-  </si>
-  <si>
-    <t>CC(=O)c1ccccc1Br</t>
-  </si>
-  <si>
-    <t>PIMNFNXBTGPCIL-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>CC(=O)N(C)CC(=O)c1ccccc1</t>
-  </si>
-  <si>
-    <t>WILPNXBAEMGDCS-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>CC(=O)CN(C)c1ccccc1</t>
-  </si>
-  <si>
-    <t>SLOCEDWZEACARV-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>CC(=O)c1ccc(-c2ccccc2)cc1</t>
-  </si>
-  <si>
-    <t>QCZZSANNLWPGEA-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>CC(=O)c1ccc(F)cc1</t>
-  </si>
-  <si>
-    <t>ZDPAWHACYDRYIW-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>CC(=O)c1ccco1</t>
-  </si>
-  <si>
-    <t>IEMMBWWQXVXBEU-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>CC(=O)C1CC1</t>
-  </si>
-  <si>
-    <t>HVCFCNAITDHQFX-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>CC(=O)c1cccc(Br)c1</t>
-  </si>
-  <si>
-    <t>JYAQYXOVOHJRCS-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>O=C(c1ccccc1)c1nccc2ccccc12</t>
-  </si>
-  <si>
-    <t>MDWCIKACMBMJFA-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>COc1ccccc1C(=O)c1cnn(-c2ccccc2)c1</t>
-  </si>
-  <si>
-    <t>XTIVLYSLPXZKLH-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>O=C(c1ccccc1)c1ccncc1</t>
-  </si>
-  <si>
-    <t>SKFLCXNDKRUHTA-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>CC(=O)c1ccc([N+](=O)[O-])cc1</t>
-  </si>
-  <si>
-    <t>YQYGPGKTNQNXMH-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>C/C=C/C(=O)CC(C)C</t>
-  </si>
-  <si>
-    <t>VJQKJGLHKJYTQM-SNAWJCMRSA-N</t>
-  </si>
-  <si>
-    <t>CC(=O)c1ccc(F)cc1F</t>
-  </si>
-  <si>
-    <t>QEWHNJPLPZOEKU-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>O=C(c1ccccc1)c1ccccc1Br</t>
-  </si>
-  <si>
-    <t>ABEVIHIQUUXDMS-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>Cc1ccccc1C(=O)c1ccccc1</t>
-  </si>
-  <si>
-    <t>CKGKXGQVRVAKEA-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>O=C(c1ccc(Br)cc1)C(F)(F)F</t>
-  </si>
-  <si>
-    <t>IHGSAQHSAGRWNI-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>CC(=O)c1ccc(C)cc1C</t>
-  </si>
-  <si>
-    <t>HSDSKVWQTONQBJ-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>O=C(c1cccc(Cl)c1)c1ccccn1</t>
-  </si>
-  <si>
-    <t>DTEIFMBOVCPJGY-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>CC(=O)C1=C(C)CCC1</t>
-  </si>
-  <si>
-    <t>HDURLXYBKGWETC-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>CCCCCC(=O)c1ccco1</t>
-  </si>
-  <si>
-    <t>YUAYWSBSIJVIBS-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>CC(=O)c1ccccc1C</t>
-  </si>
-  <si>
-    <t>YXWWHNCQZBVZPV-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>CCC(=O)c1cccc(F)c1</t>
-  </si>
-  <si>
-    <t>RPMOHVRRKYJFSB-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>O=C(Cn1ccnc1)c1ccc(Cl)cc1Cl</t>
-  </si>
-  <si>
-    <t>YAEYBUZMILPYLT-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1039/D2CC03701G</t>
-  </si>
-  <si>
-    <t>CN(CC(=O)c1ccccc1)C(=O)c1ccccc1</t>
-  </si>
-  <si>
-    <t>KXARYBXYBGQZCM-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>CC(=O)c1cccnc1</t>
-  </si>
-  <si>
-    <t>WEGYGNROSJDEIW-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>COc1ccc(C(=O)c2ccccn2)cc1</t>
-  </si>
-  <si>
-    <t>ZYZQOYSKLICWGX-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>COC(OC)C(C)=O</t>
-  </si>
-  <si>
-    <t>ULVSHNOGEVXRDR-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>Cc1ncc(C(=O)c2ccc(OC(F)F)c(OC3CC3)c2)s1</t>
-  </si>
-  <si>
-    <t>LCWRNKBOWMZEKT-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>CCCCc1ccc(C(C)=O)cc1</t>
-  </si>
-  <si>
-    <t>MQESVSITPLILCO-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>CC(C)[Si](c1ncc(C(=O)c2ccccc2)o1)(C(C)C)C(C)C</t>
-  </si>
-  <si>
-    <t>IJPGLDZXSJKFQQ-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>Cc1ccc(C(=O)c2ccccc2)cc1</t>
-  </si>
-  <si>
-    <t>WXPWZZHELZEVPO-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://doi.org/10.1021/ol9904139 </t>
-  </si>
-  <si>
-    <t>O=C(c1ccccc1)c1ccc(C(F)(F)F)cc1</t>
-  </si>
-  <si>
-    <t>OHTYZZYAMUVKQS-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>CC(=O)c1ccsc1</t>
-  </si>
-  <si>
-    <t>RNIDWJDZNNVFDY-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>O=C(c1ccccc1)C(F)(F)F</t>
-  </si>
-  <si>
-    <t>KZJRKRQSDZGHEC-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>O=C(c1ccccc1)c1ccccc1Cl</t>
-  </si>
-  <si>
-    <t>VMHYWKBKHMYRNF-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>Cc1ccccc1C(=O)c1cccnc1</t>
-  </si>
-  <si>
-    <t>YIPODLIDWSBPJA-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>CC(=O)c1ccc2ccccc2c1</t>
-  </si>
-  <si>
-    <t>XSAYZAUNJMRRIR-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>CC(=O)c1ccncc1</t>
-  </si>
-  <si>
-    <t>WMQUKDQWMMOHSA-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>O=C(c1ccccn1)c1cc(C(F)(F)F)nc2c(C(F)(F)F)cccc12</t>
-  </si>
-  <si>
-    <t>GZTUXOWPGYDWNO-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>Cc1ccc(C(=O)c2ccnc3cc(Cl)ccc23)cc1</t>
-  </si>
-  <si>
-    <t>ZKMWWSYZEDDBGZ-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>Cc1nc(C(=O)c2ccccc2)cs1</t>
-  </si>
-  <si>
-    <t>LXZSCYZOMOPQEF-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>O=C(c1ccccc1)c1ccccn1</t>
-  </si>
-  <si>
-    <t>GCSHUYKULREZSJ-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>CC(C)C(=O)c1ccccn1</t>
-  </si>
-  <si>
-    <t>OPPJOYDMQXHCFS-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>CC(=O)c1ccccc1F</t>
-  </si>
-  <si>
-    <t>QMATYTFXDIWACW-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>CC(=O)c1cccs1</t>
-  </si>
-  <si>
-    <t>WYJOVVXUZNRJQY-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>CC(=O)COc1ccccc1</t>
-  </si>
-  <si>
-    <t>QWAVNXZAQASOML-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>COCOC(c1ncc(C(=O)c2ccccc2)s1)(C(F)(F)F)C(F)(F)F</t>
-  </si>
-  <si>
-    <t>RDYXHIZMFBMAOS-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>Cc1ccc(C(=O)c2ccccn2)cc1</t>
-  </si>
-  <si>
-    <t>BHDAKOZHMSQCFH-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>COc1ccc(C(=O)c2ccccc2)cc1</t>
-  </si>
-  <si>
-    <t>SWFHGTMLYIBPPA-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>CN(C)CCC(=O)c1ccccc1</t>
-  </si>
-  <si>
-    <t>QMNXJNURJISYMS-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>CC(=O)c1ccccn1</t>
-  </si>
-  <si>
-    <t>AJKVQEKCUACUMD-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>Cc1ccc(C(=O)c2ccccc2Br)cc1</t>
-  </si>
-  <si>
-    <t>PGNXIGKGMHOQCA-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>COc1ccccc1C(C)=O</t>
-  </si>
-  <si>
-    <t>DWPLEOPKBWNPQV-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>O=C(c1ccccc1)c1ccc(Cl)cc1</t>
-  </si>
-  <si>
-    <t>UGVRJVHOJNYEHR-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>CC(=O)c1ccc(C(F)(F)F)cc1</t>
-  </si>
-  <si>
-    <t>HHAISVSEJFEWBZ-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>CC(=O)c1cccc(F)c1</t>
-  </si>
-  <si>
-    <t>HCEKGPAHZCYRBZ-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>COc1cccc(C(C)=O)c1</t>
-  </si>
-  <si>
-    <t>BAYUSCHCCGXLAY-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>CC(=O)c1ccc(Cl)cc1Cl</t>
-  </si>
-  <si>
-    <t>XMCRWEBERCXJCH-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>CCC(=O)c1ccccc1</t>
-  </si>
-  <si>
-    <t>KRIOVPPHQSLHCZ-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>CC(=O)c1ccc(Br)cc1</t>
-  </si>
-  <si>
-    <t>WYECURVXVYPVAT-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>CC(C)(C)[Si](C)(C)c1ncc(C(=O)c2ccccc2)s1</t>
-  </si>
-  <si>
-    <t>VUVSIPWGRHQUGS-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>CC(=O)c1ccc(C)cc1</t>
-  </si>
-  <si>
-    <t>GNKZMNRKLCTJAY-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>CC(=O)CN(C)C</t>
-  </si>
-  <si>
-    <t>VFPKIWATTACVJR-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>CCCCC/C=C/C(C)=O</t>
-  </si>
-  <si>
-    <t>HDKLIZDXVUCLHQ-BQYQJAHWSA-N</t>
-  </si>
-  <si>
-    <t>CCOC(OCC)C(=O)c1ccccc1</t>
-  </si>
-  <si>
-    <t>PIZHFBODNLEQBL-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>COc1ccccc1C(=O)c1ccccc1</t>
-  </si>
-  <si>
-    <t>CSUUDNFYSFENAE-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>CC(=O)C1CCCCC1</t>
-  </si>
-  <si>
-    <t>RIFKADJTWUGDOV-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>O=C(c1ccccc1)c1ccnc2cc(Cl)ccc12</t>
-  </si>
-  <si>
-    <t>FCHBFQQIEMUQIF-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>CC(=O)c1ccccc1Cl</t>
-  </si>
-  <si>
-    <t>ZDOYHCIRUPHUHN-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>CC(=O)c1ccccc1C(F)(F)F</t>
-  </si>
-  <si>
-    <t>FYDUUODXZQITBF-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>CC(=O)C1=CCCCCC1</t>
-  </si>
-  <si>
-    <t>CZSBBWHUCQLKNQ-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>COc1ccc(C(C)=O)cc1</t>
-  </si>
-  <si>
-    <t>NTPLXRHDUXRPNE-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>O=C(c1ccc(OC(F)F)c(OC2CC2)c1)c1nccs1</t>
-  </si>
-  <si>
-    <t>IYZPWGMIISJDTP-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>CC(=O)c1ccc(C(F)(F)F)cc1C(F)(F)F</t>
-  </si>
-  <si>
-    <t>MHLYNSLYUWMONA-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>CC(=O)/C=C/C1=C(C)CCCC1(C)C</t>
-  </si>
-  <si>
-    <t>PSQYTAPXSHCGMF-BQYQJAHWSA-N</t>
   </si>
 </sst>
 </file>
@@ -4509,652 +4401,6 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1219200" y="123072525"/>
-          <a:ext cx="952500" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>99</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>99</xdr:row>
-      <xdr:rowOff>952500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="100" name="Picture 99" descr="f"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId99"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1219200" y="124339350"/>
-          <a:ext cx="952500" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>100</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>100</xdr:row>
-      <xdr:rowOff>952500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="101" name="Picture 100" descr="f"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId100"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1219200" y="125606175"/>
-          <a:ext cx="952500" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>101</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>101</xdr:row>
-      <xdr:rowOff>952500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="102" name="Picture 101" descr="f"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId101"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1219200" y="126873000"/>
-          <a:ext cx="952500" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>102</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>102</xdr:row>
-      <xdr:rowOff>952500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="103" name="Picture 102" descr="f"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId102"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1219200" y="128139825"/>
-          <a:ext cx="952500" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>103</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>103</xdr:row>
-      <xdr:rowOff>952500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="104" name="Picture 103" descr="f"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId103"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1219200" y="129406650"/>
-          <a:ext cx="952500" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>104</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>104</xdr:row>
-      <xdr:rowOff>952500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="105" name="Picture 104" descr="f"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId104"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1219200" y="130673475"/>
-          <a:ext cx="952500" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>105</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>105</xdr:row>
-      <xdr:rowOff>952500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="106" name="Picture 105" descr="f"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId105"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1219200" y="131940300"/>
-          <a:ext cx="952500" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>106</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>106</xdr:row>
-      <xdr:rowOff>952500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="107" name="Picture 106" descr="f"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId106"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1219200" y="133207125"/>
-          <a:ext cx="952500" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>107</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>107</xdr:row>
-      <xdr:rowOff>952500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="108" name="Picture 107" descr="f"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId107"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1219200" y="134473950"/>
-          <a:ext cx="952500" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>108</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>108</xdr:row>
-      <xdr:rowOff>952500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="109" name="Picture 108" descr="f"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId108"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1219200" y="135740775"/>
-          <a:ext cx="952500" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>109</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>109</xdr:row>
-      <xdr:rowOff>952500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="110" name="Picture 109" descr="f"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId109"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1219200" y="137007600"/>
-          <a:ext cx="952500" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>110</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>110</xdr:row>
-      <xdr:rowOff>952500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="111" name="Picture 110" descr="f"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId110"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1219200" y="138274425"/>
-          <a:ext cx="952500" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>111</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>111</xdr:row>
-      <xdr:rowOff>952500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="112" name="Picture 111" descr="f"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId111"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1219200" y="139541250"/>
-          <a:ext cx="952500" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>112</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>112</xdr:row>
-      <xdr:rowOff>952500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="113" name="Picture 112" descr="f"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId112"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1219200" y="140808075"/>
-          <a:ext cx="952500" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>113</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>113</xdr:row>
-      <xdr:rowOff>952500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="114" name="Picture 113" descr="f"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId113"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1219200" y="142074900"/>
-          <a:ext cx="952500" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>114</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>114</xdr:row>
-      <xdr:rowOff>952500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="115" name="Picture 114" descr="f"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId114"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1219200" y="143341725"/>
-          <a:ext cx="952500" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>115</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>115</xdr:row>
-      <xdr:rowOff>952500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="116" name="Picture 115" descr="f"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId115"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1219200" y="144608550"/>
           <a:ext cx="952500" cy="952500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5452,7 +4698,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I116"/>
+  <dimension ref="A1:I99"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5492,7 +4738,7 @@
     </row>
     <row r="2" spans="1:9" ht="100" customHeight="1">
       <c r="A2">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="B2" t="s">
         <v>9</v>
@@ -5504,10 +4750,10 @@
         <v>301</v>
       </c>
       <c r="F2">
-        <v>97.5</v>
+        <v>0.5</v>
       </c>
       <c r="G2">
-        <v>-2.194436790415199</v>
+        <v>3.170636656961724</v>
       </c>
       <c r="H2" t="s">
         <v>11</v>
@@ -5518,7 +4764,7 @@
     </row>
     <row r="3" spans="1:9" ht="100" customHeight="1">
       <c r="A3">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="B3" t="s">
         <v>12</v>
@@ -5530,10 +4776,10 @@
         <v>301</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>98</v>
       </c>
       <c r="G3">
-        <v>2.752430839032118</v>
+        <v>-2.331161440365284</v>
       </c>
       <c r="H3" t="s">
         <v>11</v>
@@ -5544,7 +4790,7 @@
     </row>
     <row r="4" spans="1:9" ht="100" customHeight="1">
       <c r="A4">
-        <v>91</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
         <v>14</v>
@@ -5553,16 +4799,16 @@
         <v>15</v>
       </c>
       <c r="E4">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="F4">
-        <v>96</v>
+        <v>0.5</v>
       </c>
       <c r="G4">
-        <v>-1.884649482472938</v>
+        <v>3.170636656961724</v>
       </c>
       <c r="H4" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -5570,25 +4816,25 @@
     </row>
     <row r="5" spans="1:9" ht="100" customHeight="1">
       <c r="A5">
-        <v>110</v>
+        <v>69</v>
       </c>
       <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
         <v>17</v>
       </c>
-      <c r="D5" t="s">
-        <v>18</v>
-      </c>
       <c r="E5">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F5">
-        <v>89</v>
+        <v>99.5</v>
       </c>
       <c r="G5">
-        <v>-1.260654159218154</v>
+        <v>-3.170636656961734</v>
       </c>
       <c r="H5" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -5596,25 +4842,25 @@
     </row>
     <row r="6" spans="1:9" ht="100" customHeight="1">
       <c r="A6">
-        <v>97</v>
+        <v>32</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E6">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="F6">
-        <v>12.6</v>
+        <v>0.5</v>
       </c>
       <c r="G6">
-        <v>1.14856022791088</v>
+        <v>3.170636656961724</v>
       </c>
       <c r="H6" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -5622,25 +4868,25 @@
     </row>
     <row r="7" spans="1:9" ht="100" customHeight="1">
       <c r="A7">
-        <v>94</v>
+        <v>41</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="F7">
-        <v>97.5</v>
+        <v>97</v>
       </c>
       <c r="G7">
-        <v>-2.172565327387805</v>
+        <v>-2.082148354224433</v>
       </c>
       <c r="H7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -5648,22 +4894,22 @@
     </row>
     <row r="8" spans="1:9" ht="100" customHeight="1">
       <c r="A8">
-        <v>84</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E8">
         <v>301</v>
       </c>
       <c r="F8">
-        <v>3.5</v>
+        <v>0.5</v>
       </c>
       <c r="G8">
-        <v>1.986718076069495</v>
+        <v>3.170636656961724</v>
       </c>
       <c r="H8" t="s">
         <v>11</v>
@@ -5674,22 +4920,22 @@
     </row>
     <row r="9" spans="1:9" ht="100" customHeight="1">
       <c r="A9">
-        <v>31</v>
+        <v>68</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E9">
         <v>301</v>
       </c>
       <c r="F9">
-        <v>0.5</v>
+        <v>99.75</v>
       </c>
       <c r="G9">
-        <v>3.170636656961724</v>
+        <v>-3.587327999102873</v>
       </c>
       <c r="H9" t="s">
         <v>11</v>
@@ -5700,22 +4946,22 @@
     </row>
     <row r="10" spans="1:9" ht="100" customHeight="1">
       <c r="A10">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E10">
         <v>301</v>
       </c>
       <c r="F10">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G10">
-        <v>2.331161440365284</v>
+        <v>1.903622463840116</v>
       </c>
       <c r="H10" t="s">
         <v>11</v>
@@ -5726,22 +4972,22 @@
     </row>
     <row r="11" spans="1:9" ht="100" customHeight="1">
       <c r="A11">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E11">
         <v>301</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="G11">
-        <v>2.752430839032118</v>
+        <v>3.58732799910286</v>
       </c>
       <c r="H11" t="s">
         <v>11</v>
@@ -5752,25 +4998,25 @@
     </row>
     <row r="12" spans="1:9" ht="100" customHeight="1">
       <c r="A12">
-        <v>114</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D12" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E12">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F12">
-        <v>43.5</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.1576644147438256</v>
+        <v>2.752430839032118</v>
       </c>
       <c r="H12" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -5778,22 +5024,22 @@
     </row>
     <row r="13" spans="1:9" ht="100" customHeight="1">
       <c r="A13">
+        <v>75</v>
+      </c>
+      <c r="B13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" t="s">
         <v>33</v>
       </c>
-      <c r="B13" t="s">
-        <v>34</v>
-      </c>
-      <c r="D13" t="s">
-        <v>35</v>
-      </c>
       <c r="E13">
         <v>301</v>
       </c>
       <c r="F13">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>3.170636656961724</v>
+        <v>2.752430839032118</v>
       </c>
       <c r="H13" t="s">
         <v>11</v>
@@ -5804,22 +5050,22 @@
     </row>
     <row r="14" spans="1:9" ht="100" customHeight="1">
       <c r="A14">
-        <v>43</v>
+        <v>84</v>
       </c>
       <c r="B14" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D14" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E14">
         <v>301</v>
       </c>
       <c r="F14">
-        <v>98</v>
+        <v>3.5</v>
       </c>
       <c r="G14">
-        <v>-2.331161440365284</v>
+        <v>1.986718076069495</v>
       </c>
       <c r="H14" t="s">
         <v>11</v>
@@ -5830,22 +5076,22 @@
     </row>
     <row r="15" spans="1:9" ht="100" customHeight="1">
       <c r="A15">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="B15" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D15" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E15">
         <v>301</v>
       </c>
       <c r="F15">
-        <v>96.5</v>
+        <v>0.5</v>
       </c>
       <c r="G15">
-        <v>-1.986718076069497</v>
+        <v>3.170636656961724</v>
       </c>
       <c r="H15" t="s">
         <v>11</v>
@@ -5856,22 +5102,22 @@
     </row>
     <row r="16" spans="1:9" ht="100" customHeight="1">
       <c r="A16">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="B16" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D16" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E16">
         <v>301</v>
       </c>
       <c r="F16">
-        <v>0.5</v>
+        <v>98.5</v>
       </c>
       <c r="G16">
-        <v>3.170636656961724</v>
+        <v>-2.506528426687459</v>
       </c>
       <c r="H16" t="s">
         <v>11</v>
@@ -5882,22 +5128,22 @@
     </row>
     <row r="17" spans="1:9" ht="100" customHeight="1">
       <c r="A17">
-        <v>70</v>
+        <v>9</v>
       </c>
       <c r="B17" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D17" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E17">
         <v>301</v>
       </c>
       <c r="F17">
-        <v>98.5</v>
+        <v>0.5</v>
       </c>
       <c r="G17">
-        <v>-2.506528426687459</v>
+        <v>3.170636656961724</v>
       </c>
       <c r="H17" t="s">
         <v>11</v>
@@ -5908,22 +5154,22 @@
     </row>
     <row r="18" spans="1:9" ht="100" customHeight="1">
       <c r="A18">
-        <v>76</v>
+        <v>8</v>
       </c>
       <c r="B18" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D18" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E18">
         <v>301</v>
       </c>
       <c r="F18">
-        <v>97.5</v>
+        <v>2</v>
       </c>
       <c r="G18">
-        <v>-2.194436790415199</v>
+        <v>2.331161440365284</v>
       </c>
       <c r="H18" t="s">
         <v>11</v>
@@ -5934,22 +5180,22 @@
     </row>
     <row r="19" spans="1:9" ht="100" customHeight="1">
       <c r="A19">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="B19" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D19" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E19">
         <v>301</v>
       </c>
       <c r="F19">
-        <v>0.5</v>
+        <v>99.5</v>
       </c>
       <c r="G19">
-        <v>3.170636656961724</v>
+        <v>-3.170636656961734</v>
       </c>
       <c r="H19" t="s">
         <v>11</v>
@@ -5960,25 +5206,25 @@
     </row>
     <row r="20" spans="1:9" ht="100" customHeight="1">
       <c r="A20">
-        <v>99</v>
+        <v>13</v>
       </c>
       <c r="B20" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D20" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E20">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="F20">
-        <v>0.649999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="G20">
-        <v>2.982553696496239</v>
+        <v>3.170636656961724</v>
       </c>
       <c r="H20" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -5986,22 +5232,22 @@
     </row>
     <row r="21" spans="1:9" ht="100" customHeight="1">
       <c r="A21">
-        <v>39</v>
+        <v>66</v>
       </c>
       <c r="B21" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D21" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E21">
         <v>301</v>
       </c>
       <c r="F21">
-        <v>0.5</v>
+        <v>99.5</v>
       </c>
       <c r="G21">
-        <v>3.170636656961724</v>
+        <v>-3.170636656961734</v>
       </c>
       <c r="H21" t="s">
         <v>11</v>
@@ -6012,22 +5258,22 @@
     </row>
     <row r="22" spans="1:9" ht="100" customHeight="1">
       <c r="A22">
-        <v>85</v>
+        <v>24</v>
       </c>
       <c r="B22" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D22" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E22">
         <v>301</v>
       </c>
       <c r="F22">
-        <v>0.25</v>
+        <v>1.5</v>
       </c>
       <c r="G22">
-        <v>3.58732799910286</v>
+        <v>2.506528426687457</v>
       </c>
       <c r="H22" t="s">
         <v>11</v>
@@ -6038,22 +5284,22 @@
     </row>
     <row r="23" spans="1:9" ht="100" customHeight="1">
       <c r="A23">
-        <v>45</v>
+        <v>72</v>
       </c>
       <c r="B23" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D23" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E23">
         <v>301</v>
       </c>
       <c r="F23">
-        <v>99.5</v>
+        <v>4</v>
       </c>
       <c r="G23">
-        <v>-3.170636656961734</v>
+        <v>1.903622463840116</v>
       </c>
       <c r="H23" t="s">
         <v>11</v>
@@ -6064,22 +5310,22 @@
     </row>
     <row r="24" spans="1:9" ht="100" customHeight="1">
       <c r="A24">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="B24" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D24" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E24">
         <v>301</v>
       </c>
       <c r="F24">
-        <v>0.5</v>
+        <v>96.5</v>
       </c>
       <c r="G24">
-        <v>3.170636656961724</v>
+        <v>-1.986718076069497</v>
       </c>
       <c r="H24" t="s">
         <v>11</v>
@@ -6090,25 +5336,25 @@
     </row>
     <row r="25" spans="1:9" ht="100" customHeight="1">
       <c r="A25">
-        <v>101</v>
+        <v>14</v>
       </c>
       <c r="B25" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D25" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E25">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="F25">
-        <v>97.2</v>
+        <v>4</v>
       </c>
       <c r="G25">
-        <v>-2.10353166053703</v>
+        <v>1.903622463840116</v>
       </c>
       <c r="H25" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -6116,25 +5362,25 @@
     </row>
     <row r="26" spans="1:9" ht="100" customHeight="1">
       <c r="A26">
-        <v>16</v>
+        <v>90</v>
       </c>
       <c r="B26" t="s">
+        <v>58</v>
+      </c>
+      <c r="D26" t="s">
+        <v>59</v>
+      </c>
+      <c r="E26">
+        <v>303</v>
+      </c>
+      <c r="F26">
+        <v>20</v>
+      </c>
+      <c r="G26">
+        <v>0.8358939109244604</v>
+      </c>
+      <c r="H26" t="s">
         <v>60</v>
-      </c>
-      <c r="D26" t="s">
-        <v>61</v>
-      </c>
-      <c r="E26">
-        <v>301</v>
-      </c>
-      <c r="F26">
-        <v>0.25</v>
-      </c>
-      <c r="G26">
-        <v>3.58732799910286</v>
-      </c>
-      <c r="H26" t="s">
-        <v>11</v>
       </c>
       <c r="I26">
         <v>0</v>
@@ -6142,22 +5388,22 @@
     </row>
     <row r="27" spans="1:9" ht="100" customHeight="1">
       <c r="A27">
-        <v>86</v>
+        <v>28</v>
       </c>
       <c r="B27" t="s">
+        <v>61</v>
+      </c>
+      <c r="D27" t="s">
         <v>62</v>
       </c>
-      <c r="D27" t="s">
-        <v>63</v>
-      </c>
       <c r="E27">
         <v>301</v>
       </c>
       <c r="F27">
-        <v>3</v>
+        <v>0.25</v>
       </c>
       <c r="G27">
-        <v>2.08214835422443</v>
+        <v>3.58732799910286</v>
       </c>
       <c r="H27" t="s">
         <v>11</v>
@@ -6168,25 +5414,25 @@
     </row>
     <row r="28" spans="1:9" ht="100" customHeight="1">
       <c r="A28">
-        <v>92</v>
+        <v>71</v>
       </c>
       <c r="B28" t="s">
+        <v>63</v>
+      </c>
+      <c r="D28" t="s">
         <v>64</v>
       </c>
-      <c r="D28" t="s">
-        <v>65</v>
-      </c>
       <c r="E28">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="F28">
-        <v>99.5</v>
+        <v>1.25</v>
       </c>
       <c r="G28">
-        <v>-3.139035627158129</v>
+        <v>2.617255569149221</v>
       </c>
       <c r="H28" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="I28">
         <v>0</v>
@@ -6194,22 +5440,22 @@
     </row>
     <row r="29" spans="1:9" ht="100" customHeight="1">
       <c r="A29">
-        <v>69</v>
+        <v>19</v>
       </c>
       <c r="B29" t="s">
+        <v>65</v>
+      </c>
+      <c r="D29" t="s">
         <v>66</v>
       </c>
-      <c r="D29" t="s">
-        <v>67</v>
-      </c>
       <c r="E29">
         <v>301</v>
       </c>
       <c r="F29">
-        <v>99.5</v>
+        <v>0.5</v>
       </c>
       <c r="G29">
-        <v>-3.170636656961734</v>
+        <v>3.170636656961724</v>
       </c>
       <c r="H29" t="s">
         <v>11</v>
@@ -6220,22 +5466,22 @@
     </row>
     <row r="30" spans="1:9" ht="100" customHeight="1">
       <c r="A30">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="B30" t="s">
+        <v>67</v>
+      </c>
+      <c r="D30" t="s">
         <v>68</v>
       </c>
-      <c r="D30" t="s">
-        <v>69</v>
-      </c>
       <c r="E30">
         <v>301</v>
       </c>
       <c r="F30">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="G30">
-        <v>2.506528426687457</v>
+        <v>3.170636656961724</v>
       </c>
       <c r="H30" t="s">
         <v>11</v>
@@ -6246,22 +5492,22 @@
     </row>
     <row r="31" spans="1:9" ht="100" customHeight="1">
       <c r="A31">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="B31" t="s">
+        <v>69</v>
+      </c>
+      <c r="D31" t="s">
         <v>70</v>
       </c>
-      <c r="D31" t="s">
-        <v>71</v>
-      </c>
       <c r="E31">
         <v>301</v>
       </c>
       <c r="F31">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="G31">
-        <v>3.170636656961724</v>
+        <v>3.58732799910286</v>
       </c>
       <c r="H31" t="s">
         <v>11</v>
@@ -6272,25 +5518,25 @@
     </row>
     <row r="32" spans="1:9" ht="100" customHeight="1">
       <c r="A32">
-        <v>108</v>
+        <v>17</v>
       </c>
       <c r="B32" t="s">
+        <v>71</v>
+      </c>
+      <c r="D32" t="s">
         <v>72</v>
       </c>
-      <c r="D32" t="s">
-        <v>73</v>
-      </c>
       <c r="E32">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F32">
-        <v>84.5</v>
+        <v>1</v>
       </c>
       <c r="G32">
-        <v>-1.022583763448757</v>
+        <v>2.752430839032118</v>
       </c>
       <c r="H32" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="I32">
         <v>0</v>
@@ -6298,22 +5544,22 @@
     </row>
     <row r="33" spans="1:9" ht="100" customHeight="1">
       <c r="A33">
-        <v>8</v>
+        <v>83</v>
       </c>
       <c r="B33" t="s">
+        <v>73</v>
+      </c>
+      <c r="D33" t="s">
         <v>74</v>
       </c>
-      <c r="D33" t="s">
-        <v>75</v>
-      </c>
       <c r="E33">
         <v>301</v>
       </c>
       <c r="F33">
-        <v>2</v>
+        <v>4.5</v>
       </c>
       <c r="G33">
-        <v>2.331161440365284</v>
+        <v>1.829943711087029</v>
       </c>
       <c r="H33" t="s">
         <v>11</v>
@@ -6327,10 +5573,10 @@
         <v>79</v>
       </c>
       <c r="B34" t="s">
+        <v>75</v>
+      </c>
+      <c r="D34" t="s">
         <v>76</v>
-      </c>
-      <c r="D34" t="s">
-        <v>77</v>
       </c>
       <c r="E34">
         <v>301</v>
@@ -6350,22 +5596,22 @@
     </row>
     <row r="35" spans="1:9" ht="100" customHeight="1">
       <c r="A35">
+        <v>31</v>
+      </c>
+      <c r="B35" t="s">
+        <v>77</v>
+      </c>
+      <c r="D35" t="s">
         <v>78</v>
       </c>
-      <c r="B35" t="s">
-        <v>78</v>
-      </c>
-      <c r="D35" t="s">
-        <v>79</v>
-      </c>
       <c r="E35">
         <v>301</v>
       </c>
       <c r="F35">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="G35">
-        <v>2.506528426687457</v>
+        <v>3.170636656961724</v>
       </c>
       <c r="H35" t="s">
         <v>11</v>
@@ -6376,25 +5622,25 @@
     </row>
     <row r="36" spans="1:9" ht="100" customHeight="1">
       <c r="A36">
-        <v>41</v>
+        <v>97</v>
       </c>
       <c r="B36" t="s">
+        <v>79</v>
+      </c>
+      <c r="D36" t="s">
         <v>80</v>
       </c>
-      <c r="D36" t="s">
-        <v>81</v>
-      </c>
       <c r="E36">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="F36">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G36">
-        <v>-2.082148354224433</v>
+        <v>-1.775408371267989</v>
       </c>
       <c r="H36" t="s">
-        <v>11</v>
+        <v>60</v>
       </c>
       <c r="I36">
         <v>0</v>
@@ -6402,22 +5648,22 @@
     </row>
     <row r="37" spans="1:9" ht="100" customHeight="1">
       <c r="A37">
-        <v>7</v>
+        <v>64</v>
       </c>
       <c r="B37" t="s">
+        <v>81</v>
+      </c>
+      <c r="D37" t="s">
         <v>82</v>
       </c>
-      <c r="D37" t="s">
-        <v>83</v>
-      </c>
       <c r="E37">
         <v>301</v>
       </c>
       <c r="F37">
-        <v>0.5</v>
+        <v>9.5</v>
       </c>
       <c r="G37">
-        <v>3.170636656961724</v>
+        <v>1.350158232627011</v>
       </c>
       <c r="H37" t="s">
         <v>11</v>
@@ -6428,22 +5674,22 @@
     </row>
     <row r="38" spans="1:9" ht="100" customHeight="1">
       <c r="A38">
-        <v>72</v>
+        <v>36</v>
       </c>
       <c r="B38" t="s">
+        <v>83</v>
+      </c>
+      <c r="D38" t="s">
         <v>84</v>
       </c>
-      <c r="D38" t="s">
-        <v>85</v>
-      </c>
       <c r="E38">
         <v>301</v>
       </c>
       <c r="F38">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G38">
-        <v>1.903622463840116</v>
+        <v>2.331161440365284</v>
       </c>
       <c r="H38" t="s">
         <v>11</v>
@@ -6454,25 +5700,25 @@
     </row>
     <row r="39" spans="1:9" ht="100" customHeight="1">
       <c r="A39">
-        <v>111</v>
+        <v>49</v>
       </c>
       <c r="B39" t="s">
+        <v>85</v>
+      </c>
+      <c r="D39" t="s">
         <v>86</v>
       </c>
-      <c r="D39" t="s">
-        <v>87</v>
-      </c>
       <c r="E39">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F39">
-        <v>77.5</v>
+        <v>99.7</v>
       </c>
       <c r="G39">
-        <v>-0.7457307612919885</v>
+        <v>-3.47781888891013</v>
       </c>
       <c r="H39" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="I39">
         <v>0</v>
@@ -6480,22 +5726,22 @@
     </row>
     <row r="40" spans="1:9" ht="100" customHeight="1">
       <c r="A40">
-        <v>83</v>
+        <v>46</v>
       </c>
       <c r="B40" t="s">
+        <v>87</v>
+      </c>
+      <c r="D40" t="s">
         <v>88</v>
       </c>
-      <c r="D40" t="s">
-        <v>89</v>
-      </c>
       <c r="E40">
         <v>301</v>
       </c>
       <c r="F40">
-        <v>4.5</v>
+        <v>98.5</v>
       </c>
       <c r="G40">
-        <v>1.829943711087029</v>
+        <v>-2.506528426687459</v>
       </c>
       <c r="H40" t="s">
         <v>11</v>
@@ -6506,13 +5752,13 @@
     </row>
     <row r="41" spans="1:9" ht="100" customHeight="1">
       <c r="A41">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="B41" t="s">
+        <v>89</v>
+      </c>
+      <c r="D41" t="s">
         <v>90</v>
-      </c>
-      <c r="D41" t="s">
-        <v>91</v>
       </c>
       <c r="E41">
         <v>301</v>
@@ -6532,22 +5778,22 @@
     </row>
     <row r="42" spans="1:9" ht="100" customHeight="1">
       <c r="A42">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="B42" t="s">
+        <v>91</v>
+      </c>
+      <c r="D42" t="s">
         <v>92</v>
       </c>
-      <c r="D42" t="s">
-        <v>93</v>
-      </c>
       <c r="E42">
         <v>301</v>
       </c>
       <c r="F42">
-        <v>99.5</v>
+        <v>96.5</v>
       </c>
       <c r="G42">
-        <v>-3.170636656961734</v>
+        <v>-1.986718076069497</v>
       </c>
       <c r="H42" t="s">
         <v>11</v>
@@ -6558,22 +5804,22 @@
     </row>
     <row r="43" spans="1:9" ht="100" customHeight="1">
       <c r="A43">
-        <v>64</v>
+        <v>35</v>
       </c>
       <c r="B43" t="s">
+        <v>93</v>
+      </c>
+      <c r="D43" t="s">
         <v>94</v>
       </c>
-      <c r="D43" t="s">
-        <v>95</v>
-      </c>
       <c r="E43">
         <v>301</v>
       </c>
       <c r="F43">
-        <v>9.5</v>
+        <v>1.5</v>
       </c>
       <c r="G43">
-        <v>1.350158232627011</v>
+        <v>2.506528426687457</v>
       </c>
       <c r="H43" t="s">
         <v>11</v>
@@ -6584,22 +5830,22 @@
     </row>
     <row r="44" spans="1:9" ht="100" customHeight="1">
       <c r="A44">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B44" t="s">
+        <v>95</v>
+      </c>
+      <c r="D44" t="s">
         <v>96</v>
       </c>
-      <c r="D44" t="s">
-        <v>97</v>
-      </c>
       <c r="E44">
         <v>301</v>
       </c>
       <c r="F44">
-        <v>1.5</v>
+        <v>0.25</v>
       </c>
       <c r="G44">
-        <v>2.506528426687457</v>
+        <v>3.58732799910286</v>
       </c>
       <c r="H44" t="s">
         <v>11</v>
@@ -6610,22 +5856,22 @@
     </row>
     <row r="45" spans="1:9" ht="100" customHeight="1">
       <c r="A45">
-        <v>24</v>
+        <v>88</v>
       </c>
       <c r="B45" t="s">
+        <v>97</v>
+      </c>
+      <c r="D45" t="s">
         <v>98</v>
       </c>
-      <c r="D45" t="s">
-        <v>99</v>
-      </c>
       <c r="E45">
         <v>301</v>
       </c>
       <c r="F45">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="G45">
-        <v>2.506528426687457</v>
+        <v>3.170636656961724</v>
       </c>
       <c r="H45" t="s">
         <v>11</v>
@@ -6636,25 +5882,25 @@
     </row>
     <row r="46" spans="1:9" ht="100" customHeight="1">
       <c r="A46">
-        <v>50</v>
+        <v>3</v>
       </c>
       <c r="B46" t="s">
+        <v>99</v>
+      </c>
+      <c r="D46" t="s">
         <v>100</v>
       </c>
-      <c r="D46" t="s">
+      <c r="E46">
+        <v>301</v>
+      </c>
+      <c r="F46">
+        <v>54.5</v>
+      </c>
+      <c r="G46">
+        <v>-0.1081107321679067</v>
+      </c>
+      <c r="H46" t="s">
         <v>101</v>
-      </c>
-      <c r="E46">
-        <v>301</v>
-      </c>
-      <c r="F46">
-        <v>0.5</v>
-      </c>
-      <c r="G46">
-        <v>3.170636656961724</v>
-      </c>
-      <c r="H46" t="s">
-        <v>11</v>
       </c>
       <c r="I46">
         <v>0</v>
@@ -6662,7 +5908,7 @@
     </row>
     <row r="47" spans="1:9" ht="100" customHeight="1">
       <c r="A47">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="B47" t="s">
         <v>102</v>
@@ -6674,10 +5920,10 @@
         <v>301</v>
       </c>
       <c r="F47">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="G47">
-        <v>2.194436790415197</v>
+        <v>2.506528426687457</v>
       </c>
       <c r="H47" t="s">
         <v>11</v>
@@ -6688,7 +5934,7 @@
     </row>
     <row r="48" spans="1:9" ht="100" customHeight="1">
       <c r="A48">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B48" t="s">
         <v>104</v>
@@ -6700,10 +5946,10 @@
         <v>301</v>
       </c>
       <c r="F48">
-        <v>0.25</v>
+        <v>1.5</v>
       </c>
       <c r="G48">
-        <v>3.58732799910286</v>
+        <v>2.506528426687457</v>
       </c>
       <c r="H48" t="s">
         <v>11</v>
@@ -6714,7 +5960,7 @@
     </row>
     <row r="49" spans="1:9" ht="100" customHeight="1">
       <c r="A49">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="B49" t="s">
         <v>106</v>
@@ -6723,16 +5969,16 @@
         <v>107</v>
       </c>
       <c r="E49">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="F49">
-        <v>95.7</v>
+        <v>0.5</v>
       </c>
       <c r="G49">
-        <v>-1.839905794590835</v>
+        <v>3.170636656961724</v>
       </c>
       <c r="H49" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="I49">
         <v>0</v>
@@ -6740,7 +5986,7 @@
     </row>
     <row r="50" spans="1:9" ht="100" customHeight="1">
       <c r="A50">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B50" t="s">
         <v>108</v>
@@ -6749,16 +5995,16 @@
         <v>109</v>
       </c>
       <c r="E50">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="F50">
-        <v>96.8</v>
+        <v>90</v>
       </c>
       <c r="G50">
-        <v>-2.02189942731846</v>
+        <v>-1.32486050339642</v>
       </c>
       <c r="H50" t="s">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="I50">
         <v>0</v>
@@ -6766,7 +6012,7 @@
     </row>
     <row r="51" spans="1:9" ht="100" customHeight="1">
       <c r="A51">
-        <v>112</v>
+        <v>70</v>
       </c>
       <c r="B51" t="s">
         <v>110</v>
@@ -6775,16 +6021,16 @@
         <v>111</v>
       </c>
       <c r="E51">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F51">
-        <v>77</v>
+        <v>98.5</v>
       </c>
       <c r="G51">
-        <v>-0.7285754078363164</v>
+        <v>-2.506528426687459</v>
       </c>
       <c r="H51" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="I51">
         <v>0</v>
@@ -6792,7 +6038,7 @@
     </row>
     <row r="52" spans="1:9" ht="100" customHeight="1">
       <c r="A52">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="B52" t="s">
         <v>112</v>
@@ -6804,10 +6050,10 @@
         <v>301</v>
       </c>
       <c r="F52">
-        <v>0.25</v>
+        <v>3</v>
       </c>
       <c r="G52">
-        <v>3.58732799910286</v>
+        <v>2.08214835422443</v>
       </c>
       <c r="H52" t="s">
         <v>11</v>
@@ -6844,7 +6090,7 @@
     </row>
     <row r="54" spans="1:9" ht="100" customHeight="1">
       <c r="A54">
-        <v>35</v>
+        <v>94</v>
       </c>
       <c r="B54" t="s">
         <v>116</v>
@@ -6853,16 +6099,16 @@
         <v>117</v>
       </c>
       <c r="E54">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="F54">
-        <v>1.5</v>
+        <v>89</v>
       </c>
       <c r="G54">
-        <v>2.506528426687457</v>
+        <v>-1.260654159218154</v>
       </c>
       <c r="H54" t="s">
-        <v>11</v>
+        <v>60</v>
       </c>
       <c r="I54">
         <v>0</v>
@@ -6870,7 +6116,7 @@
     </row>
     <row r="55" spans="1:9" ht="100" customHeight="1">
       <c r="A55">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="B55" t="s">
         <v>118</v>
@@ -6882,10 +6128,10 @@
         <v>301</v>
       </c>
       <c r="F55">
-        <v>98.5</v>
+        <v>1.5</v>
       </c>
       <c r="G55">
-        <v>-2.506528426687459</v>
+        <v>2.506528426687457</v>
       </c>
       <c r="H55" t="s">
         <v>11</v>
@@ -6896,7 +6142,7 @@
     </row>
     <row r="56" spans="1:9" ht="100" customHeight="1">
       <c r="A56">
-        <v>44</v>
+        <v>86</v>
       </c>
       <c r="B56" t="s">
         <v>120</v>
@@ -6908,10 +6154,10 @@
         <v>301</v>
       </c>
       <c r="F56">
-        <v>96.5</v>
+        <v>3</v>
       </c>
       <c r="G56">
-        <v>-1.986718076069497</v>
+        <v>2.08214835422443</v>
       </c>
       <c r="H56" t="s">
         <v>11</v>
@@ -6922,7 +6168,7 @@
     </row>
     <row r="57" spans="1:9" ht="100" customHeight="1">
       <c r="A57">
-        <v>42</v>
+        <v>1</v>
       </c>
       <c r="B57" t="s">
         <v>122</v>
@@ -6934,13 +6180,13 @@
         <v>301</v>
       </c>
       <c r="F57">
-        <v>97</v>
+        <v>46</v>
       </c>
       <c r="G57">
-        <v>-2.082148354224433</v>
+        <v>0.09604364396853164</v>
       </c>
       <c r="H57" t="s">
-        <v>11</v>
+        <v>101</v>
       </c>
       <c r="I57">
         <v>0</v>
@@ -6948,7 +6194,7 @@
     </row>
     <row r="58" spans="1:9" ht="100" customHeight="1">
       <c r="A58">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="B58" t="s">
         <v>124</v>
@@ -6960,13 +6206,13 @@
         <v>301</v>
       </c>
       <c r="F58">
-        <v>0.5</v>
+        <v>73.5</v>
       </c>
       <c r="G58">
-        <v>3.170636656961724</v>
+        <v>-0.6110540618560099</v>
       </c>
       <c r="H58" t="s">
-        <v>11</v>
+        <v>101</v>
       </c>
       <c r="I58">
         <v>0</v>
@@ -6974,7 +6220,7 @@
     </row>
     <row r="59" spans="1:9" ht="100" customHeight="1">
       <c r="A59">
-        <v>107</v>
+        <v>56</v>
       </c>
       <c r="B59" t="s">
         <v>126</v>
@@ -6983,16 +6229,16 @@
         <v>127</v>
       </c>
       <c r="E59">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F59">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="G59">
-        <v>0.6624302516982101</v>
+        <v>2.752430839032118</v>
       </c>
       <c r="H59" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="I59">
         <v>0</v>
@@ -7000,7 +6246,7 @@
     </row>
     <row r="60" spans="1:9" ht="100" customHeight="1">
       <c r="A60">
-        <v>88</v>
+        <v>42</v>
       </c>
       <c r="B60" t="s">
         <v>128</v>
@@ -7012,10 +6258,10 @@
         <v>301</v>
       </c>
       <c r="F60">
-        <v>0.5</v>
+        <v>97</v>
       </c>
       <c r="G60">
-        <v>3.170636656961724</v>
+        <v>-2.082148354224433</v>
       </c>
       <c r="H60" t="s">
         <v>11</v>
@@ -7026,7 +6272,7 @@
     </row>
     <row r="61" spans="1:9" ht="100" customHeight="1">
       <c r="A61">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B61" t="s">
         <v>130</v>
@@ -7038,10 +6284,10 @@
         <v>301</v>
       </c>
       <c r="F61">
-        <v>1</v>
+        <v>98</v>
       </c>
       <c r="G61">
-        <v>2.752430839032118</v>
+        <v>-2.331161440365284</v>
       </c>
       <c r="H61" t="s">
         <v>11</v>
@@ -7052,7 +6298,7 @@
     </row>
     <row r="62" spans="1:9" ht="100" customHeight="1">
       <c r="A62">
-        <v>9</v>
+        <v>91</v>
       </c>
       <c r="B62" t="s">
         <v>132</v>
@@ -7061,16 +6307,16 @@
         <v>133</v>
       </c>
       <c r="E62">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="F62">
-        <v>0.5</v>
+        <v>25</v>
       </c>
       <c r="G62">
-        <v>3.170636656961724</v>
+        <v>0.6624302516982101</v>
       </c>
       <c r="H62" t="s">
-        <v>11</v>
+        <v>60</v>
       </c>
       <c r="I62">
         <v>0</v>
@@ -7078,7 +6324,7 @@
     </row>
     <row r="63" spans="1:9" ht="100" customHeight="1">
       <c r="A63">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="B63" t="s">
         <v>134</v>
@@ -7104,7 +6350,7 @@
     </row>
     <row r="64" spans="1:9" ht="100" customHeight="1">
       <c r="A64">
-        <v>116</v>
+        <v>61</v>
       </c>
       <c r="B64" t="s">
         <v>136</v>
@@ -7113,16 +6359,16 @@
         <v>137</v>
       </c>
       <c r="E64">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="F64">
-        <v>99.5</v>
+        <v>2.5</v>
       </c>
       <c r="G64">
-        <v>-3.139035627158129</v>
+        <v>2.194436790415197</v>
       </c>
       <c r="H64" t="s">
-        <v>138</v>
+        <v>11</v>
       </c>
       <c r="I64">
         <v>0</v>
@@ -7130,22 +6376,22 @@
     </row>
     <row r="65" spans="1:9" ht="100" customHeight="1">
       <c r="A65">
-        <v>68</v>
+        <v>87</v>
       </c>
       <c r="B65" t="s">
+        <v>138</v>
+      </c>
+      <c r="D65" t="s">
         <v>139</v>
       </c>
-      <c r="D65" t="s">
-        <v>140</v>
-      </c>
       <c r="E65">
         <v>301</v>
       </c>
       <c r="F65">
-        <v>99.75</v>
+        <v>0.5</v>
       </c>
       <c r="G65">
-        <v>-3.587327999102873</v>
+        <v>3.170636656961724</v>
       </c>
       <c r="H65" t="s">
         <v>11</v>
@@ -7156,25 +6402,25 @@
     </row>
     <row r="66" spans="1:9" ht="100" customHeight="1">
       <c r="A66">
-        <v>58</v>
+        <v>98</v>
       </c>
       <c r="B66" t="s">
+        <v>140</v>
+      </c>
+      <c r="D66" t="s">
         <v>141</v>
       </c>
-      <c r="D66" t="s">
-        <v>142</v>
-      </c>
       <c r="E66">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="F66">
-        <v>0.25</v>
+        <v>43.5</v>
       </c>
       <c r="G66">
-        <v>3.58732799910286</v>
+        <v>0.1576644147438256</v>
       </c>
       <c r="H66" t="s">
-        <v>11</v>
+        <v>60</v>
       </c>
       <c r="I66">
         <v>0</v>
@@ -7182,25 +6428,25 @@
     </row>
     <row r="67" spans="1:9" ht="100" customHeight="1">
       <c r="A67">
-        <v>98</v>
+        <v>62</v>
       </c>
       <c r="B67" t="s">
+        <v>142</v>
+      </c>
+      <c r="D67" t="s">
         <v>143</v>
       </c>
-      <c r="D67" t="s">
-        <v>144</v>
-      </c>
       <c r="E67">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="F67">
-        <v>5.25</v>
+        <v>7.5</v>
       </c>
       <c r="G67">
-        <v>1.715615024319236</v>
+        <v>1.504845945705453</v>
       </c>
       <c r="H67" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="I67">
         <v>0</v>
@@ -7208,13 +6454,13 @@
     </row>
     <row r="68" spans="1:9" ht="100" customHeight="1">
       <c r="A68">
-        <v>75</v>
+        <v>11</v>
       </c>
       <c r="B68" t="s">
+        <v>144</v>
+      </c>
+      <c r="D68" t="s">
         <v>145</v>
-      </c>
-      <c r="D68" t="s">
-        <v>146</v>
       </c>
       <c r="E68">
         <v>301</v>
@@ -7234,25 +6480,25 @@
     </row>
     <row r="69" spans="1:9" ht="100" customHeight="1">
       <c r="A69">
-        <v>93</v>
+        <v>54</v>
       </c>
       <c r="B69" t="s">
+        <v>146</v>
+      </c>
+      <c r="D69" t="s">
         <v>147</v>
       </c>
-      <c r="D69" t="s">
-        <v>148</v>
-      </c>
       <c r="E69">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="F69">
-        <v>98.5</v>
+        <v>0.25</v>
       </c>
       <c r="G69">
-        <v>-2.481546415790242</v>
+        <v>3.58732799910286</v>
       </c>
       <c r="H69" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="I69">
         <v>0</v>
@@ -7260,22 +6506,22 @@
     </row>
     <row r="70" spans="1:9" ht="100" customHeight="1">
       <c r="A70">
-        <v>22</v>
+        <v>76</v>
       </c>
       <c r="B70" t="s">
+        <v>148</v>
+      </c>
+      <c r="D70" t="s">
         <v>149</v>
       </c>
-      <c r="D70" t="s">
-        <v>150</v>
-      </c>
       <c r="E70">
         <v>301</v>
       </c>
       <c r="F70">
-        <v>1</v>
+        <v>97.5</v>
       </c>
       <c r="G70">
-        <v>2.752430839032118</v>
+        <v>-2.194436790415199</v>
       </c>
       <c r="H70" t="s">
         <v>11</v>
@@ -7286,25 +6532,25 @@
     </row>
     <row r="71" spans="1:9" ht="100" customHeight="1">
       <c r="A71">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="B71" t="s">
+        <v>150</v>
+      </c>
+      <c r="D71" t="s">
         <v>151</v>
       </c>
-      <c r="D71" t="s">
-        <v>152</v>
-      </c>
       <c r="E71">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="F71">
-        <v>99.75</v>
+        <v>16</v>
       </c>
       <c r="G71">
-        <v>-3.55157389944404</v>
+        <v>0.9998617833496319</v>
       </c>
       <c r="H71" t="s">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="I71">
         <v>0</v>
@@ -7312,25 +6558,25 @@
     </row>
     <row r="72" spans="1:9" ht="100" customHeight="1">
       <c r="A72">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B72" t="s">
+        <v>152</v>
+      </c>
+      <c r="D72" t="s">
         <v>153</v>
       </c>
-      <c r="D72" t="s">
-        <v>154</v>
-      </c>
       <c r="E72">
         <v>301</v>
       </c>
       <c r="F72">
-        <v>46</v>
+        <v>32.5</v>
       </c>
       <c r="G72">
-        <v>0.09604364396853164</v>
+        <v>0.4377943087420472</v>
       </c>
       <c r="H72" t="s">
-        <v>155</v>
+        <v>101</v>
       </c>
       <c r="I72">
         <v>0</v>
@@ -7338,25 +6584,25 @@
     </row>
     <row r="73" spans="1:9" ht="100" customHeight="1">
       <c r="A73">
-        <v>4</v>
+        <v>73</v>
       </c>
       <c r="B73" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D73" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E73">
         <v>301</v>
       </c>
       <c r="F73">
-        <v>73.5</v>
+        <v>0.5</v>
       </c>
       <c r="G73">
-        <v>-0.6110540618560099</v>
+        <v>3.170636656961724</v>
       </c>
       <c r="H73" t="s">
-        <v>155</v>
+        <v>11</v>
       </c>
       <c r="I73">
         <v>0</v>
@@ -7364,13 +6610,13 @@
     </row>
     <row r="74" spans="1:9" ht="100" customHeight="1">
       <c r="A74">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B74" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D74" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E74">
         <v>301</v>
@@ -7390,22 +6636,22 @@
     </row>
     <row r="75" spans="1:9" ht="100" customHeight="1">
       <c r="A75">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="B75" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D75" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E75">
         <v>301</v>
       </c>
       <c r="F75">
-        <v>98</v>
+        <v>0.5</v>
       </c>
       <c r="G75">
-        <v>-2.331161440365284</v>
+        <v>3.170636656961724</v>
       </c>
       <c r="H75" t="s">
         <v>11</v>
@@ -7416,490 +6662,490 @@
     </row>
     <row r="76" spans="1:9" ht="100" customHeight="1">
       <c r="A76">
-        <v>46</v>
+        <v>5</v>
       </c>
       <c r="B76" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D76" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E76">
         <v>301</v>
       </c>
       <c r="F76">
-        <v>98.5</v>
+        <v>0.5</v>
       </c>
       <c r="G76">
-        <v>-2.506528426687459</v>
+        <v>3.170636656961724</v>
       </c>
       <c r="H76" t="s">
         <v>11</v>
       </c>
       <c r="I76">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:9" ht="100" customHeight="1">
       <c r="A77">
-        <v>109</v>
+        <v>40</v>
       </c>
       <c r="B77" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D77" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E77">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F77">
-        <v>16</v>
+        <v>98</v>
       </c>
       <c r="G77">
-        <v>0.9998617833496319</v>
+        <v>-2.331161440365284</v>
       </c>
       <c r="H77" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="I77">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:9" ht="100" customHeight="1">
       <c r="A78">
-        <v>38</v>
+        <v>89</v>
       </c>
       <c r="B78" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D78" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E78">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="F78">
+        <v>15</v>
+      </c>
+      <c r="G78">
+        <v>1.045912398367367</v>
+      </c>
+      <c r="H78" t="s">
+        <v>60</v>
+      </c>
+      <c r="I78">
         <v>1</v>
-      </c>
-      <c r="G78">
-        <v>2.752430839032118</v>
-      </c>
-      <c r="H78" t="s">
-        <v>11</v>
-      </c>
-      <c r="I78">
-        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:9" ht="100" customHeight="1">
       <c r="A79">
-        <v>59</v>
+        <v>92</v>
       </c>
       <c r="B79" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D79" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E79">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="F79">
-        <v>0.25</v>
+        <v>84.5</v>
       </c>
       <c r="G79">
-        <v>3.58732799910286</v>
+        <v>-1.022583763448757</v>
       </c>
       <c r="H79" t="s">
-        <v>11</v>
+        <v>60</v>
       </c>
       <c r="I79">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:9" ht="100" customHeight="1">
       <c r="A80">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="B80" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D80" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E80">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="F80">
-        <v>6</v>
+        <v>77</v>
       </c>
       <c r="G80">
-        <v>1.631715471340137</v>
+        <v>-0.7285754078363164</v>
       </c>
       <c r="H80" t="s">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="I80">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:9" ht="100" customHeight="1">
       <c r="A81">
-        <v>115</v>
+        <v>15</v>
       </c>
       <c r="B81" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D81" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E81">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F81">
-        <v>90</v>
+        <v>1</v>
       </c>
       <c r="G81">
-        <v>-1.32486050339642</v>
+        <v>2.752430839032118</v>
       </c>
       <c r="H81" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="I81">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:9" ht="100" customHeight="1">
       <c r="A82">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="B82" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D82" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E82">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="F82">
-        <v>8.300000000000001</v>
+        <v>0.25</v>
       </c>
       <c r="G82">
-        <v>1.42459229596199</v>
+        <v>3.58732799910286</v>
       </c>
       <c r="H82" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="I82">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:9" ht="100" customHeight="1">
       <c r="A83">
-        <v>105</v>
+        <v>38</v>
       </c>
       <c r="B83" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D83" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E83">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F83">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="G83">
-        <v>1.045912398367367</v>
+        <v>2.752430839032118</v>
       </c>
       <c r="H83" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="I83">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:9" ht="100" customHeight="1">
       <c r="A84">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="B84" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D84" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E84">
         <v>301</v>
       </c>
       <c r="F84">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G84">
-        <v>2.08214835422443</v>
+        <v>2.331161440365284</v>
       </c>
       <c r="H84" t="s">
         <v>11</v>
       </c>
       <c r="I84">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:9" ht="100" customHeight="1">
       <c r="A85">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="B85" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D85" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E85">
         <v>301</v>
       </c>
       <c r="F85">
-        <v>1.5</v>
+        <v>0.25</v>
       </c>
       <c r="G85">
-        <v>2.506528426687457</v>
+        <v>3.58732799910286</v>
       </c>
       <c r="H85" t="s">
         <v>11</v>
       </c>
       <c r="I85">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:9" ht="100" customHeight="1">
       <c r="A86">
-        <v>52</v>
+        <v>80</v>
       </c>
       <c r="B86" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D86" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E86">
         <v>301</v>
       </c>
       <c r="F86">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="G86">
-        <v>3.170636656961724</v>
+        <v>2.506528426687457</v>
       </c>
       <c r="H86" t="s">
         <v>11</v>
       </c>
       <c r="I86">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:9" ht="100" customHeight="1">
       <c r="A87">
-        <v>74</v>
+        <v>51</v>
       </c>
       <c r="B87" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D87" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E87">
         <v>301</v>
       </c>
       <c r="F87">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G87">
-        <v>1.316115549578622</v>
+        <v>2.752430839032118</v>
       </c>
       <c r="H87" t="s">
         <v>11</v>
       </c>
       <c r="I87">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:9" ht="100" customHeight="1">
       <c r="A88">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="B88" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D88" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E88">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="F88">
-        <v>98.75</v>
+        <v>10</v>
       </c>
       <c r="G88">
-        <v>-2.59116996546999</v>
+        <v>1.316115549578622</v>
       </c>
       <c r="H88" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="I88">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:9" ht="100" customHeight="1">
       <c r="A89">
-        <v>106</v>
+        <v>67</v>
       </c>
       <c r="B89" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D89" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E89">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F89">
-        <v>20</v>
+        <v>97.5</v>
       </c>
       <c r="G89">
-        <v>0.8358939109244604</v>
+        <v>-2.194436790415199</v>
       </c>
       <c r="H89" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="I89">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:9" ht="100" customHeight="1">
       <c r="A90">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="B90" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D90" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E90">
         <v>301</v>
       </c>
       <c r="F90">
-        <v>32.5</v>
+        <v>0.25</v>
       </c>
       <c r="G90">
-        <v>0.4377943087420472</v>
+        <v>3.58732799910286</v>
       </c>
       <c r="H90" t="s">
-        <v>155</v>
+        <v>11</v>
       </c>
       <c r="I90">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:9" ht="100" customHeight="1">
       <c r="A91">
-        <v>71</v>
+        <v>30</v>
       </c>
       <c r="B91" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D91" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E91">
         <v>301</v>
       </c>
       <c r="F91">
-        <v>1.25</v>
+        <v>0.25</v>
       </c>
       <c r="G91">
-        <v>2.617255569149221</v>
+        <v>3.58732799910286</v>
       </c>
       <c r="H91" t="s">
         <v>11</v>
       </c>
       <c r="I91">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:9" ht="100" customHeight="1">
       <c r="A92">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="B92" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D92" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E92">
         <v>301</v>
       </c>
       <c r="F92">
-        <v>2</v>
+        <v>68.5</v>
       </c>
       <c r="G92">
-        <v>2.331161440365284</v>
+        <v>-0.4653231050005244</v>
       </c>
       <c r="H92" t="s">
         <v>11</v>
       </c>
       <c r="I92">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:9" ht="100" customHeight="1">
       <c r="A93">
-        <v>48</v>
+        <v>95</v>
       </c>
       <c r="B93" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D93" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E93">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="F93">
-        <v>98</v>
+        <v>77.5</v>
       </c>
       <c r="G93">
-        <v>-2.331161440365284</v>
+        <v>-0.7457307612919885</v>
       </c>
       <c r="H93" t="s">
-        <v>11</v>
+        <v>60</v>
       </c>
       <c r="I93">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:9" ht="100" customHeight="1">
       <c r="A94">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="B94" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D94" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E94">
         <v>301</v>
       </c>
       <c r="F94">
-        <v>4</v>
+        <v>0.5</v>
       </c>
       <c r="G94">
-        <v>1.903622463840116</v>
+        <v>3.170636656961724</v>
       </c>
       <c r="H94" t="s">
         <v>11</v>
@@ -7910,25 +7156,25 @@
     </row>
     <row r="95" spans="1:9" ht="100" customHeight="1">
       <c r="A95">
-        <v>3</v>
+        <v>57</v>
       </c>
       <c r="B95" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D95" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E95">
         <v>301</v>
       </c>
       <c r="F95">
-        <v>54.5</v>
+        <v>2</v>
       </c>
       <c r="G95">
-        <v>-0.1081107321679067</v>
+        <v>2.331161440365284</v>
       </c>
       <c r="H95" t="s">
-        <v>155</v>
+        <v>11</v>
       </c>
       <c r="I95">
         <v>1</v>
@@ -7936,22 +7182,22 @@
     </row>
     <row r="96" spans="1:9" ht="100" customHeight="1">
       <c r="A96">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B96" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D96" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E96">
         <v>301</v>
       </c>
       <c r="F96">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="G96">
-        <v>3.58732799910286</v>
+        <v>2.752430839032118</v>
       </c>
       <c r="H96" t="s">
         <v>11</v>
@@ -7962,22 +7208,22 @@
     </row>
     <row r="97" spans="1:9" ht="100" customHeight="1">
       <c r="A97">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="B97" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D97" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E97">
         <v>301</v>
       </c>
       <c r="F97">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="G97">
-        <v>2.752430839032118</v>
+        <v>3.58732799910286</v>
       </c>
       <c r="H97" t="s">
         <v>11</v>
@@ -7988,22 +7234,22 @@
     </row>
     <row r="98" spans="1:9" ht="100" customHeight="1">
       <c r="A98">
-        <v>20</v>
+        <v>82</v>
       </c>
       <c r="B98" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D98" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E98">
         <v>301</v>
       </c>
       <c r="F98">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="G98">
-        <v>3.170636656961724</v>
+        <v>2.08214835422443</v>
       </c>
       <c r="H98" t="s">
         <v>11</v>
@@ -8014,469 +7260,27 @@
     </row>
     <row r="99" spans="1:9" ht="100" customHeight="1">
       <c r="A99">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="B99" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D99" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E99">
         <v>301</v>
       </c>
       <c r="F99">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="G99">
-        <v>2.331161440365284</v>
+        <v>2.506528426687457</v>
       </c>
       <c r="H99" t="s">
         <v>11</v>
       </c>
       <c r="I99">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9" ht="100" customHeight="1">
-      <c r="A100">
-        <v>6</v>
-      </c>
-      <c r="B100" t="s">
-        <v>210</v>
-      </c>
-      <c r="D100" t="s">
-        <v>211</v>
-      </c>
-      <c r="E100">
-        <v>301</v>
-      </c>
-      <c r="F100">
-        <v>0.5</v>
-      </c>
-      <c r="G100">
-        <v>3.170636656961724</v>
-      </c>
-      <c r="H100" t="s">
-        <v>11</v>
-      </c>
-      <c r="I100">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9" ht="100" customHeight="1">
-      <c r="A101">
-        <v>25</v>
-      </c>
-      <c r="B101" t="s">
-        <v>212</v>
-      </c>
-      <c r="D101" t="s">
-        <v>213</v>
-      </c>
-      <c r="E101">
-        <v>301</v>
-      </c>
-      <c r="F101">
-        <v>0.25</v>
-      </c>
-      <c r="G101">
-        <v>3.58732799910286</v>
-      </c>
-      <c r="H101" t="s">
-        <v>11</v>
-      </c>
-      <c r="I101">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9" ht="100" customHeight="1">
-      <c r="A102">
-        <v>90</v>
-      </c>
-      <c r="B102" t="s">
-        <v>214</v>
-      </c>
-      <c r="D102" t="s">
-        <v>215</v>
-      </c>
-      <c r="E102">
-        <v>298</v>
-      </c>
-      <c r="F102">
-        <v>98.5</v>
-      </c>
-      <c r="G102">
-        <v>-2.481546415790242</v>
-      </c>
-      <c r="H102" t="s">
-        <v>16</v>
-      </c>
-      <c r="I102">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9" ht="100" customHeight="1">
-      <c r="A103">
-        <v>21</v>
-      </c>
-      <c r="B103" t="s">
-        <v>216</v>
-      </c>
-      <c r="D103" t="s">
-        <v>217</v>
-      </c>
-      <c r="E103">
-        <v>301</v>
-      </c>
-      <c r="F103">
-        <v>1</v>
-      </c>
-      <c r="G103">
-        <v>2.752430839032118</v>
-      </c>
-      <c r="H103" t="s">
-        <v>11</v>
-      </c>
-      <c r="I103">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9" ht="100" customHeight="1">
-      <c r="A104">
-        <v>63</v>
-      </c>
-      <c r="B104" t="s">
-        <v>218</v>
-      </c>
-      <c r="D104" t="s">
-        <v>219</v>
-      </c>
-      <c r="E104">
-        <v>301</v>
-      </c>
-      <c r="F104">
-        <v>4</v>
-      </c>
-      <c r="G104">
-        <v>1.903622463840116</v>
-      </c>
-      <c r="H104" t="s">
-        <v>11</v>
-      </c>
-      <c r="I104">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9" ht="100" customHeight="1">
-      <c r="A105">
-        <v>80</v>
-      </c>
-      <c r="B105" t="s">
-        <v>220</v>
-      </c>
-      <c r="D105" t="s">
-        <v>221</v>
-      </c>
-      <c r="E105">
-        <v>301</v>
-      </c>
-      <c r="F105">
-        <v>1.5</v>
-      </c>
-      <c r="G105">
-        <v>2.506528426687457</v>
-      </c>
-      <c r="H105" t="s">
-        <v>11</v>
-      </c>
-      <c r="I105">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9" ht="100" customHeight="1">
-      <c r="A106">
-        <v>77</v>
-      </c>
-      <c r="B106" t="s">
-        <v>222</v>
-      </c>
-      <c r="D106" t="s">
-        <v>223</v>
-      </c>
-      <c r="E106">
-        <v>301</v>
-      </c>
-      <c r="F106">
-        <v>68.5</v>
-      </c>
-      <c r="G106">
-        <v>-0.4653231050005244</v>
-      </c>
-      <c r="H106" t="s">
-        <v>11</v>
-      </c>
-      <c r="I106">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9" ht="100" customHeight="1">
-      <c r="A107">
-        <v>49</v>
-      </c>
-      <c r="B107" t="s">
-        <v>224</v>
-      </c>
-      <c r="D107" t="s">
-        <v>225</v>
-      </c>
-      <c r="E107">
-        <v>301</v>
-      </c>
-      <c r="F107">
-        <v>99.7</v>
-      </c>
-      <c r="G107">
-        <v>-3.47781888891013</v>
-      </c>
-      <c r="H107" t="s">
-        <v>11</v>
-      </c>
-      <c r="I107">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9" ht="100" customHeight="1">
-      <c r="A108">
-        <v>62</v>
-      </c>
-      <c r="B108" t="s">
-        <v>226</v>
-      </c>
-      <c r="D108" t="s">
-        <v>227</v>
-      </c>
-      <c r="E108">
-        <v>301</v>
-      </c>
-      <c r="F108">
-        <v>7.5</v>
-      </c>
-      <c r="G108">
-        <v>1.504845945705453</v>
-      </c>
-      <c r="H108" t="s">
-        <v>11</v>
-      </c>
-      <c r="I108">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9" ht="100" customHeight="1">
-      <c r="A109">
-        <v>113</v>
-      </c>
-      <c r="B109" t="s">
-        <v>228</v>
-      </c>
-      <c r="D109" t="s">
-        <v>229</v>
-      </c>
-      <c r="E109">
-        <v>303</v>
-      </c>
-      <c r="F109">
-        <v>95</v>
-      </c>
-      <c r="G109">
-        <v>-1.775408371267989</v>
-      </c>
-      <c r="H109" t="s">
-        <v>19</v>
-      </c>
-      <c r="I109">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9" ht="100" customHeight="1">
-      <c r="A110">
-        <v>11</v>
-      </c>
-      <c r="B110" t="s">
-        <v>230</v>
-      </c>
-      <c r="D110" t="s">
-        <v>231</v>
-      </c>
-      <c r="E110">
-        <v>301</v>
-      </c>
-      <c r="F110">
-        <v>1</v>
-      </c>
-      <c r="G110">
-        <v>2.752430839032118</v>
-      </c>
-      <c r="H110" t="s">
-        <v>11</v>
-      </c>
-      <c r="I110">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9" ht="100" customHeight="1">
-      <c r="A111">
-        <v>13</v>
-      </c>
-      <c r="B111" t="s">
-        <v>232</v>
-      </c>
-      <c r="D111" t="s">
-        <v>233</v>
-      </c>
-      <c r="E111">
-        <v>301</v>
-      </c>
-      <c r="F111">
-        <v>0.5</v>
-      </c>
-      <c r="G111">
-        <v>3.170636656961724</v>
-      </c>
-      <c r="H111" t="s">
-        <v>11</v>
-      </c>
-      <c r="I111">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9" ht="100" customHeight="1">
-      <c r="A112">
-        <v>87</v>
-      </c>
-      <c r="B112" t="s">
-        <v>234</v>
-      </c>
-      <c r="D112" t="s">
-        <v>235</v>
-      </c>
-      <c r="E112">
-        <v>301</v>
-      </c>
-      <c r="F112">
-        <v>0.5</v>
-      </c>
-      <c r="G112">
-        <v>3.170636656961724</v>
-      </c>
-      <c r="H112" t="s">
-        <v>11</v>
-      </c>
-      <c r="I112">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9" ht="100" customHeight="1">
-      <c r="A113">
-        <v>28</v>
-      </c>
-      <c r="B113" t="s">
-        <v>236</v>
-      </c>
-      <c r="D113" t="s">
-        <v>237</v>
-      </c>
-      <c r="E113">
-        <v>301</v>
-      </c>
-      <c r="F113">
-        <v>0.25</v>
-      </c>
-      <c r="G113">
-        <v>3.58732799910286</v>
-      </c>
-      <c r="H113" t="s">
-        <v>11</v>
-      </c>
-      <c r="I113">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9" ht="100" customHeight="1">
-      <c r="A114">
-        <v>95</v>
-      </c>
-      <c r="B114" t="s">
-        <v>238</v>
-      </c>
-      <c r="D114" t="s">
-        <v>239</v>
-      </c>
-      <c r="E114">
-        <v>298</v>
-      </c>
-      <c r="F114">
-        <v>71.09999999999999</v>
-      </c>
-      <c r="G114">
-        <v>-0.5338637297374831</v>
-      </c>
-      <c r="H114" t="s">
-        <v>16</v>
-      </c>
-      <c r="I114">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9" ht="100" customHeight="1">
-      <c r="A115">
-        <v>37</v>
-      </c>
-      <c r="B115" t="s">
-        <v>240</v>
-      </c>
-      <c r="D115" t="s">
-        <v>241</v>
-      </c>
-      <c r="E115">
-        <v>301</v>
-      </c>
-      <c r="F115">
-        <v>0.25</v>
-      </c>
-      <c r="G115">
-        <v>3.58732799910286</v>
-      </c>
-      <c r="H115" t="s">
-        <v>11</v>
-      </c>
-      <c r="I115">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9" ht="100" customHeight="1">
-      <c r="A116">
-        <v>82</v>
-      </c>
-      <c r="B116" t="s">
-        <v>242</v>
-      </c>
-      <c r="D116" t="s">
-        <v>243</v>
-      </c>
-      <c r="E116">
-        <v>301</v>
-      </c>
-      <c r="F116">
-        <v>3</v>
-      </c>
-      <c r="G116">
-        <v>2.08214835422443</v>
-      </c>
-      <c r="H116" t="s">
-        <v>11</v>
-      </c>
-      <c r="I116">
         <v>1</v>
       </c>
     </row>
